--- a/data/hotels_by_city/Denver/Denver_shard_88.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_88.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="817">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d2324883-Reviews-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Fairfield-Inn-Suites-By-Marriott-Denver-Aurora-Parker.h4640306.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,2356 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r598593925-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>2324883</t>
+  </si>
+  <si>
+    <t>598593925</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Nice place to relax!</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference that was taking place nearby.  This hotel was a great place to come back and relax after a big day.  The beds were amazing, rooms spacious and clean.  Breakfast was great, and the workout room was nice.  I did not use the pool.  There are tons of restaurants and shopping nearby.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r598540927-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>598540927</t>
+  </si>
+  <si>
+    <t>A brief overnight in Aurora</t>
+  </si>
+  <si>
+    <t>This facility is conveniently located off I-470 at the Southlands Shopping Center in Aurora.  The building is fairly new.  They serve and excellent breakfast but other fine restaurants are nearby, including Olive Garden.  The rooms are large and comfortable.  The Wi -Fi is excellent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r598420843-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>598420843</t>
+  </si>
+  <si>
+    <t>Nice hotel located near Aurora</t>
+  </si>
+  <si>
+    <t>The hotel was very convenient for me while I was visiting family in Aurora.  My room was comfortable and clean.  The price was not too bad for the Denver area.  A couple of side doors were not working, but there are other doors.  The staff was quite friendly and very professional.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r594682756-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>594682756</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife and I stayed here only because I am a Marriott Rewards member and we needed a place close to Aurora Reservoir for one night.  The hotel staff were friendly and we didn’t have any housekeeping issues.  I considered the hotel average. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r591946098-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>591946098</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>An average place</t>
+  </si>
+  <si>
+    <t>I felt the hotel was not up to the standards of other Fairfield hotels.  The computer didn't work, staff not very friendly, After I requested a room away from the freeway, the room assigned to us was facing the freeway, we asked to be moved, we were moved into the handicapped room, and  not informed that we were assigned to it. The bathroom had only one light and was very dark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r591628076-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>591628076</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here recently for one night in a business trip. There is lots of construction around the hotel &amp; in the hotel itself. That being said, I believe once it is complete this will be a great hotel. Easy to get to. I stayed on the second floor with a newly renovated room. It was clean &amp; beautifully decorated. Three pillows per bed &amp; comfy too. Appreciated the full size iron &amp; ironing board in the room as well. Breakfast was a little lack luster but did the job. I would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r588603517-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>588603517</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Bad news.</t>
+  </si>
+  <si>
+    <t>Though appearing relatively new, the housekeeping was TERRIBLE.1.Hall carpeting and tile dirty and spotted.2. Lobby had dead flowers, I mean dry, crispy, with gross water in vase.3. TV remote filthy (I cleaned it, I know)3. Room furniture dirty ( Ottoman  and chair dirty needed vacuuming)4. This is REALLY gross. The lotion and shampoo bottles were used and half Empty!5. Smoke detector hanging by wires. ( only realized that after the alarm sounded off at     8 a.m.).6.Bathtub was super slick and waiting for a lawsuit.No bathmat.7. Perhaps worst, a Non English speaking housekeeper who had NO idea how to understand my request for  one hour deferral on cleaning. Other staff members could not communitcate with her either. As a result, I got ZERO room service for the 3 nights I was there.8. This is a terrible way for management to save money. Cheap,Cheap, Cheap. And I paid 189$ night. 9. I got a standard apology asking me to return soon. Uh huh.10. I can't help but wonder if I even got clean sheets .MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Though appearing relatively new, the housekeeping was TERRIBLE.1.Hall carpeting and tile dirty and spotted.2. Lobby had dead flowers, I mean dry, crispy, with gross water in vase.3. TV remote filthy (I cleaned it, I know)3. Room furniture dirty ( Ottoman  and chair dirty needed vacuuming)4. This is REALLY gross. The lotion and shampoo bottles were used and half Empty!5. Smoke detector hanging by wires. ( only realized that after the alarm sounded off at     8 a.m.).6.Bathtub was super slick and waiting for a lawsuit.No bathmat.7. Perhaps worst, a Non English speaking housekeeper who had NO idea how to understand my request for  one hour deferral on cleaning. Other staff members could not communitcate with her either. As a result, I got ZERO room service for the 3 nights I was there.8. This is a terrible way for management to save money. Cheap,Cheap, Cheap. And I paid 189$ night. 9. I got a standard apology asking me to return soon. Uh huh.10. I can't help but wonder if I even got clean sheets .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r588546937-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>588546937</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>From the moment we were signed in by Becca at the front desk our experience at this hotel was wonderful. The location is within walking distance to dinning, shopping and some nice Denver neighborhoods. Breakfast is included and provided something for every one.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r587298387-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>587298387</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Low quality breakfast</t>
+  </si>
+  <si>
+    <t>This property is a typical Fairfield Inn. I have stayed at several Fairfield Inn properties for business travel. I wasn't expecting a Five Star hotel but this was a substandard experience from the moment of check-In.The front desk staff were not helpful or pleasant. As a Marriott Gold member, i usually ask about upgrades. I was told, quite curtly, that no upgrades available as the property was sold out which i found hard to believe.As for breakfast, it's very low quality with little to no variety.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r574062283-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>574062283</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>The pool is great for my granddaughter who visits me in the hotel</t>
+  </si>
+  <si>
+    <t>I need to come to Aurora to take care of an ill family member several times per year.  Catherine, the front desk manager, is always so welcoming; I feel like her hotel is a home-away-from-home.  She is professional and kind to all the guests. It is so nice to be near restaurants and the shops at Southlands Mall.  Above all, I appreciate the staff and the quality service they extend to their guests.JSandburg   FloridaMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Verena D, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>I need to come to Aurora to take care of an ill family member several times per year.  Catherine, the front desk manager, is always so welcoming; I feel like her hotel is a home-away-from-home.  She is professional and kind to all the guests. It is so nice to be near restaurants and the shops at Southlands Mall.  Above all, I appreciate the staff and the quality service they extend to their guests.JSandburg   FloridaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r571988991-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>571988991</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Not very clean</t>
+  </si>
+  <si>
+    <t>The hotel staff was excellent. Very friendly (which is why I am giving this hotel one star). We do not usually have problems with this particular hotel chain, but this was our second time staying here and both times the hotel was dirty. This last time, there was a sticky mess on the window, heater, and curtains. When we pulled out the hide-away bed, crumbs and candy were all over the place. there was a stain on the mattress, no blankets for the bed and just the overall feel was dirty!  We were out of hot water after the first person showered.  We will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>The hotel staff was excellent. Very friendly (which is why I am giving this hotel one star). We do not usually have problems with this particular hotel chain, but this was our second time staying here and both times the hotel was dirty. This last time, there was a sticky mess on the window, heater, and curtains. When we pulled out the hide-away bed, crumbs and candy were all over the place. there was a stain on the mattress, no blankets for the bed and just the overall feel was dirty!  We were out of hot water after the first person showered.  We will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r569125949-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>569125949</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean with on site laundry and free breakfast. There is an indoor heated pool and gym. Staff was friendly. The only complaint we had was the way they pre-charged our debit card for the incidental fee. No other hotel we stayed in did this. They have credit card on file in case they need to charge later so there is no reason to pre charge and have to refund later.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Verena D, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean with on site laundry and free breakfast. There is an indoor heated pool and gym. Staff was friendly. The only complaint we had was the way they pre-charged our debit card for the incidental fee. No other hotel we stayed in did this. They have credit card on file in case they need to charge later so there is no reason to pre charge and have to refund later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r560233634-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>560233634</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>On the best hotels I’ve stayed at in a long time, extremely clean, awesome staff!!! Would definitely stay at this location again! So many restaurants within walking distance. Perfect location and everything is so close! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Verena D, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>On the best hotels I’ve stayed at in a long time, extremely clean, awesome staff!!! Would definitely stay at this location again! So many restaurants within walking distance. Perfect location and everything is so close! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r532750440-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>532750440</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This was a very nice stay overall.  It is convenient to many things - only 20 mins from DIA - and tons of good restaurants.  Had some trouble keeping the room cool.  Not sure if the AC was working properly, but the temp remained on the warmer side, despite adjusting the AC unit.  The beds were a little creaky and the bed skirts were torn.  The breakfast was a usual hotel breakfast.  I think what made this hotel better than average were the employees, especially the gal that ran the breakfast.  She was warm, friendly and seemed genuinely happy to be there. I wish we could’ve used the pool, but the temp of the water seemed on the chilly side.  Parking was ample and the hotel sits on the same property as the Southlands Mall, which was nice and convenient.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>This was a very nice stay overall.  It is convenient to many things - only 20 mins from DIA - and tons of good restaurants.  Had some trouble keeping the room cool.  Not sure if the AC was working properly, but the temp remained on the warmer side, despite adjusting the AC unit.  The beds were a little creaky and the bed skirts were torn.  The breakfast was a usual hotel breakfast.  I think what made this hotel better than average were the employees, especially the gal that ran the breakfast.  She was warm, friendly and seemed genuinely happy to be there. I wish we could’ve used the pool, but the temp of the water seemed on the chilly side.  Parking was ample and the hotel sits on the same property as the Southlands Mall, which was nice and convenient.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r530036309-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>530036309</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Convenient location in newer construction</t>
+  </si>
+  <si>
+    <t>We were in town to visit family while on a road trip. We wanted something close to Denver but not in Denver and this location was perfect. Newer facility with modern furnishings and decor. Very nice and comfortable. Located right off of 225  a few miles south of I 70 and easy to find. Traffic noise was a non issue. They must have considered this during construction as it was quiet all night. Check in was effortless and  everyone on staff was smiling and eager to please. Breakfast included scrambled eggs, both real and vegan sausage, dairy, cereals, fruit breads, coffee and juices. Nice selection available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r528615539-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>528615539</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointing for a Marriott chain </t>
+  </si>
+  <si>
+    <t>I travel a good bit and have stayed in various hotels and hotel chains. While I can not complain about the room itself staff, housekeeping in particular was poor. The first of four day stay the room was not serviced even after two requests at the front desk. When I realized it was not going to happen I returned to the front desk a third time and asked for fresh towels. Front desk staff did not bother to apologize for the over sight or the inconvenience. The next day the room was serviced however a clear plastic cup was dropped in the toilet and lodged in the bowl. I told housekeeping about this and asked if they had something to retrieve it, I was given gloves and no offer for them to come remove it. My room was on the first floor.  Each afternoon a very strong odor was in the hallway. It may have been from the laundry room at the end of the hall but at least they do wash towels and sheets. I would have complained to management but this was a business trip and the room was pre paid. I know this is not typical of a Fairfield. On a positive note, and why this hotel was selected was the location at Southlands. Lots of shopping and restaurants in the area and many with in walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel a good bit and have stayed in various hotels and hotel chains. While I can not complain about the room itself staff, housekeeping in particular was poor. The first of four day stay the room was not serviced even after two requests at the front desk. When I realized it was not going to happen I returned to the front desk a third time and asked for fresh towels. Front desk staff did not bother to apologize for the over sight or the inconvenience. The next day the room was serviced however a clear plastic cup was dropped in the toilet and lodged in the bowl. I told housekeeping about this and asked if they had something to retrieve it, I was given gloves and no offer for them to come remove it. My room was on the first floor.  Each afternoon a very strong odor was in the hallway. It may have been from the laundry room at the end of the hall but at least they do wash towels and sheets. I would have complained to management but this was a business trip and the room was pre paid. I know this is not typical of a Fairfield. On a positive note, and why this hotel was selected was the location at Southlands. Lots of shopping and restaurants in the area and many with in walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r526326728-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>526326728</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Great Stay for A Wedding</t>
+  </si>
+  <si>
+    <t>The hotel was very convenient and clean. The decor could be updated in the rooms but the customer service was very good and checkin and checkout were done professionally and with no hitches. Thanks for the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Randy R, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very convenient and clean. The decor could be updated in the rooms but the customer service was very good and checkin and checkout were done professionally and with no hitches. Thanks for the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r517652829-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>517652829</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Just passing through</t>
+  </si>
+  <si>
+    <t>This is a quality hotel, with nice staff and amenities you would expect from a Fairfield Inn. Breakfast was also fine.  The only irritation is that we had to take the toll road from I-70 to reach the hotel. Certainly, no fault of the hotel or hotel staff. We enjoyed our stay and found plenty of dining options nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Randy R, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>This is a quality hotel, with nice staff and amenities you would expect from a Fairfield Inn. Breakfast was also fine.  The only irritation is that we had to take the toll road from I-70 to reach the hotel. Certainly, no fault of the hotel or hotel staff. We enjoyed our stay and found plenty of dining options nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r498324461-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>498324461</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Much needed Good Night of sleep!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got the last room of the night, happened to be a suite! Lucky me!  Great room. I felt pampered. As always, everything about the room and the property was perfect. Thank you so much!  Can't wait to return in a couple of months. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r494225422-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>494225422</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Comfy Rooms</t>
+  </si>
+  <si>
+    <t>We checked in after finding a last minute room and Catherine at the front desk was very helpful.  My daughter was ill so we ordered a roll a way bed for her.  Catherine ran all over the hotel looking for one.  I think she was the only employee working on a Saturday night!  When she could not find a bed, she brought multiple comforters, pillows, and sheets for us.  My daughter was happy with her "personal" bed.  The gym has a random set of dumbells but the cadrio equipment was in good condition.  Breakfast was OK for what you would expect at a hotel.  Thanks to Catherine for going above and beyond at a busy time of night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in after finding a last minute room and Catherine at the front desk was very helpful.  My daughter was ill so we ordered a roll a way bed for her.  Catherine ran all over the hotel looking for one.  I think she was the only employee working on a Saturday night!  When she could not find a bed, she brought multiple comforters, pillows, and sheets for us.  My daughter was happy with her "personal" bed.  The gym has a random set of dumbells but the cadrio equipment was in good condition.  Breakfast was OK for what you would expect at a hotel.  Thanks to Catherine for going above and beyond at a busy time of night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r488016622-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>488016622</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not too many available places to stay while here for a graduation. So tempted to check out tomorrow and find a new place wherever. The grounds are dirty, the floors in the common areas are horribly dirty, 2pm and no maid service yet and the garbage by the elevator had not been emptied in 2 days. Not much to say about their workout room. Got more of a work out cleaning my room and replacing in the things we needed. So disappointed. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r485672348-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>485672348</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Near Southland's Town Center</t>
+  </si>
+  <si>
+    <t>This was a basic hotel.  I am glad they serve breakfast.  The beds were fine except for the usual hotel pillows that are worthless.  There is an annoying refrigerator in the room-but it does keep drinks cool.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>This was a basic hotel.  I am glad they serve breakfast.  The beds were fine except for the usual hotel pillows that are worthless.  There is an annoying refrigerator in the room-but it does keep drinks cool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r484769811-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>484769811</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I didn't have high expectations going in to this hotel and I wasn't disappointed. It had recently received a very modern make over and looked nice for the most part. There were a few odds and ends left in the rooms from the renovation including switches with no purpose and windows that couldn't quite close anymore. The beds were almost but not quite worn out, so a little uncomfortable. The breakfast was a very standard fare as were the rest of the amenities.If price is your deciding factor then this is probably a decent option. If the area is your primary concern there are better hotels right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>I didn't have high expectations going in to this hotel and I wasn't disappointed. It had recently received a very modern make over and looked nice for the most part. There were a few odds and ends left in the rooms from the renovation including switches with no purpose and windows that couldn't quite close anymore. The beds were almost but not quite worn out, so a little uncomfortable. The breakfast was a very standard fare as were the rest of the amenities.If price is your deciding factor then this is probably a decent option. If the area is your primary concern there are better hotels right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r484454646-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>484454646</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff; bare-bones hotel</t>
+  </si>
+  <si>
+    <t>First, this Marriott brand is not meant to compete with a full-service Marriott, so one should not expect that level of amenities. That said, there were some items worth mentioning that may be helpful. I recommend it for a short stay before the lack of amenities become an issue.
+It's clean and the staff are well trained and friendly. Breakfast is included (including hot items), but the plates/bowls are styrofoam, which is shameful IMO, and surprising in green-eco Colorado.
+There is an exercise room, which is a plus, with hand weights, two treadmills, one elliptical. The TV connected to the elliptical did not appear to work. There is a large TV mounted in the corner, but at an extremely awkward angle for viewing when using the machines. The jacuzzi jets did not work and the water was lukewarm.
+The rooms are large and well arranged. Bed was comfortable with four fluffy pillows; however, the comforter was about the thinnest I've encountered in a hotel. The hairdryer did not work on the high setting; one phone call and one visit to the front desk was necessary before it was replaced with a brand-new one. There is no fan in the bathroom so the mirror is not usable immediately after a shower. Our room was not cleaned one day of our four-night stay, on another day, we were not given a fresh bathmat. There is no option for reusing towels, so they...First, this Marriott brand is not meant to compete with a full-service Marriott, so one should not expect that level of amenities. That said, there were some items worth mentioning that may be helpful. I recommend it for a short stay before the lack of amenities become an issue.It's clean and the staff are well trained and friendly. Breakfast is included (including hot items), but the plates/bowls are styrofoam, which is shameful IMO, and surprising in green-eco Colorado.There is an exercise room, which is a plus, with hand weights, two treadmills, one elliptical. The TV connected to the elliptical did not appear to work. There is a large TV mounted in the corner, but at an extremely awkward angle for viewing when using the machines. The jacuzzi jets did not work and the water was lukewarm.The rooms are large and well arranged. Bed was comfortable with four fluffy pillows; however, the comforter was about the thinnest I've encountered in a hotel. The hairdryer did not work on the high setting; one phone call and one visit to the front desk was necessary before it was replaced with a brand-new one. There is no fan in the bathroom so the mirror is not usable immediately after a shower. Our room was not cleaned one day of our four-night stay, on another day, we were not given a fresh bathmat. There is no option for reusing towels, so they were replaced daily, There is no reading material (newspapers/magazines) available anywhere. We were told newspapers are available M-F, but they were not delivered the Friday we stayed.In summary, the disposable, one-use items (paper cups; plastic utensils; small, complimentary water bottles) became bothersome for me. Marriott would do better to extend glassware and utensils across all brands instead of limiting them to the full-service hotels and give better consideration to sustainability.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, this Marriott brand is not meant to compete with a full-service Marriott, so one should not expect that level of amenities. That said, there were some items worth mentioning that may be helpful. I recommend it for a short stay before the lack of amenities become an issue.
+It's clean and the staff are well trained and friendly. Breakfast is included (including hot items), but the plates/bowls are styrofoam, which is shameful IMO, and surprising in green-eco Colorado.
+There is an exercise room, which is a plus, with hand weights, two treadmills, one elliptical. The TV connected to the elliptical did not appear to work. There is a large TV mounted in the corner, but at an extremely awkward angle for viewing when using the machines. The jacuzzi jets did not work and the water was lukewarm.
+The rooms are large and well arranged. Bed was comfortable with four fluffy pillows; however, the comforter was about the thinnest I've encountered in a hotel. The hairdryer did not work on the high setting; one phone call and one visit to the front desk was necessary before it was replaced with a brand-new one. There is no fan in the bathroom so the mirror is not usable immediately after a shower. Our room was not cleaned one day of our four-night stay, on another day, we were not given a fresh bathmat. There is no option for reusing towels, so they...First, this Marriott brand is not meant to compete with a full-service Marriott, so one should not expect that level of amenities. That said, there were some items worth mentioning that may be helpful. I recommend it for a short stay before the lack of amenities become an issue.It's clean and the staff are well trained and friendly. Breakfast is included (including hot items), but the plates/bowls are styrofoam, which is shameful IMO, and surprising in green-eco Colorado.There is an exercise room, which is a plus, with hand weights, two treadmills, one elliptical. The TV connected to the elliptical did not appear to work. There is a large TV mounted in the corner, but at an extremely awkward angle for viewing when using the machines. The jacuzzi jets did not work and the water was lukewarm.The rooms are large and well arranged. Bed was comfortable with four fluffy pillows; however, the comforter was about the thinnest I've encountered in a hotel. The hairdryer did not work on the high setting; one phone call and one visit to the front desk was necessary before it was replaced with a brand-new one. There is no fan in the bathroom so the mirror is not usable immediately after a shower. Our room was not cleaned one day of our four-night stay, on another day, we were not given a fresh bathmat. There is no option for reusing towels, so they were replaced daily, There is no reading material (newspapers/magazines) available anywhere. We were told newspapers are available M-F, but they were not delivered the Friday we stayed.In summary, the disposable, one-use items (paper cups; plastic utensils; small, complimentary water bottles) became bothersome for me. Marriott would do better to extend glassware and utensils across all brands instead of limiting them to the full-service hotels and give better consideration to sustainability.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r471280921-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>471280921</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Nice idea, POOR execution!</t>
+  </si>
+  <si>
+    <t>The only hotel in the area, and they know it!  We reserved the nicest suite in the place, and paid the high price only to find a duvet with blood stains, dark hairs all over the bathroom, and a toilet that flushed so loud that everyone in the suite was awakened with every flush!   The suite was a painful disappointment, and the "amenities" were even less impressive!  The "hot tub" was lukewarm, and the "heated indoor pool" was freezing.  There were no towels at the pool and the desk attendant had to be asked to let each visitor into the pool area (since none of the key cards worked).  We visited the next day hoping for better results and found the same situation, including having to beg for towels.  The room was disgusting, the amenities utterly ignored, and the staff was less than adequate!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The only hotel in the area, and they know it!  We reserved the nicest suite in the place, and paid the high price only to find a duvet with blood stains, dark hairs all over the bathroom, and a toilet that flushed so loud that everyone in the suite was awakened with every flush!   The suite was a painful disappointment, and the "amenities" were even less impressive!  The "hot tub" was lukewarm, and the "heated indoor pool" was freezing.  There were no towels at the pool and the desk attendant had to be asked to let each visitor into the pool area (since none of the key cards worked).  We visited the next day hoping for better results and found the same situation, including having to beg for towels.  The room was disgusting, the amenities utterly ignored, and the staff was less than adequate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r459159595-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>459159595</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>Disgusted!!  I usually don't write bad reviews but this Fairfield Inn has what seems to be a very stinky homeless looking man always in the lobby.  We couldn't even eat breakfast he stunk so bad.  Then they had no sugar for the coffee no lids for coffee cups and the worst part was they put a hold on my debit card for $310.00 for one night stay.  I got 2 charges for overdraft from my bank.  The front desk said they would release it as soon as I checked out and 2 days later its still there.  I call the Fairfield Inn customer service and they told me oh sorry but it could be held up to 5 days.  Will never stay at another Fairfield Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Disgusted!!  I usually don't write bad reviews but this Fairfield Inn has what seems to be a very stinky homeless looking man always in the lobby.  We couldn't even eat breakfast he stunk so bad.  Then they had no sugar for the coffee no lids for coffee cups and the worst part was they put a hold on my debit card for $310.00 for one night stay.  I got 2 charges for overdraft from my bank.  The front desk said they would release it as soon as I checked out and 2 days later its still there.  I call the Fairfield Inn customer service and they told me oh sorry but it could be held up to 5 days.  Will never stay at another Fairfield Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r441828495-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>441828495</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Tip to get the most from your stay!</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn in Aurora is a good choice as it is within easy walking/driving distance of a lot of shops and restaurants. It also has easy access to the freeways to/from Denver International Airport. It's located in a large new shopping development.
+Sound proofing between the floors of the hotel is not great. You can hear guests in the rooms above walking around their rooms and flushing the toilets etc. A problem if you are a light sleeper as the noise is loud. So the booking tip is to ask for rooms on the top floor. This will avoid you being woken up at 4:30am if the guests on the top floor have to get up for an early morning flight!
+The hotel is new but the housekeeping needs some improvement. The main problem seems to be a lack of vacuum cleaners to run over the guest room carpets on a daily basis. My room was noticeably dirty with fluff and lint on the carpet. 
+The usual Fairfield complimentary breakfast. A mix of hot and cold food items with coffee and juice. If you are on a budget this is a good option. if you want more choice, you can walk 50ft across the carpark to a diner. 
+Friendly staff. Complimentary water when you check in. Good value for money.
+Small gym. Nice indoor pool - not huge but looks well maintained.
+If you don't mind fluff on the...The Fairfield Inn in Aurora is a good choice as it is within easy walking/driving distance of a lot of shops and restaurants. It also has easy access to the freeways to/from Denver International Airport. It's located in a large new shopping development.Sound proofing between the floors of the hotel is not great. You can hear guests in the rooms above walking around their rooms and flushing the toilets etc. A problem if you are a light sleeper as the noise is loud. So the booking tip is to ask for rooms on the top floor. This will avoid you being woken up at 4:30am if the guests on the top floor have to get up for an early morning flight!The hotel is new but the housekeeping needs some improvement. The main problem seems to be a lack of vacuum cleaners to run over the guest room carpets on a daily basis. My room was noticeably dirty with fluff and lint on the carpet. The usual Fairfield complimentary breakfast. A mix of hot and cold food items with coffee and juice. If you are on a budget this is a good option. if you want more choice, you can walk 50ft across the carpark to a diner. Friendly staff. Complimentary water when you check in. Good value for money.Small gym. Nice indoor pool - not huge but looks well maintained.If you don't mind fluff on the carpet and book a room on the top floor, I think you will be happy with your choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn in Aurora is a good choice as it is within easy walking/driving distance of a lot of shops and restaurants. It also has easy access to the freeways to/from Denver International Airport. It's located in a large new shopping development.
+Sound proofing between the floors of the hotel is not great. You can hear guests in the rooms above walking around their rooms and flushing the toilets etc. A problem if you are a light sleeper as the noise is loud. So the booking tip is to ask for rooms on the top floor. This will avoid you being woken up at 4:30am if the guests on the top floor have to get up for an early morning flight!
+The hotel is new but the housekeeping needs some improvement. The main problem seems to be a lack of vacuum cleaners to run over the guest room carpets on a daily basis. My room was noticeably dirty with fluff and lint on the carpet. 
+The usual Fairfield complimentary breakfast. A mix of hot and cold food items with coffee and juice. If you are on a budget this is a good option. if you want more choice, you can walk 50ft across the carpark to a diner. 
+Friendly staff. Complimentary water when you check in. Good value for money.
+Small gym. Nice indoor pool - not huge but looks well maintained.
+If you don't mind fluff on the...The Fairfield Inn in Aurora is a good choice as it is within easy walking/driving distance of a lot of shops and restaurants. It also has easy access to the freeways to/from Denver International Airport. It's located in a large new shopping development.Sound proofing between the floors of the hotel is not great. You can hear guests in the rooms above walking around their rooms and flushing the toilets etc. A problem if you are a light sleeper as the noise is loud. So the booking tip is to ask for rooms on the top floor. This will avoid you being woken up at 4:30am if the guests on the top floor have to get up for an early morning flight!The hotel is new but the housekeeping needs some improvement. The main problem seems to be a lack of vacuum cleaners to run over the guest room carpets on a daily basis. My room was noticeably dirty with fluff and lint on the carpet. The usual Fairfield complimentary breakfast. A mix of hot and cold food items with coffee and juice. If you are on a budget this is a good option. if you want more choice, you can walk 50ft across the carpark to a diner. Friendly staff. Complimentary water when you check in. Good value for money.Small gym. Nice indoor pool - not huge but looks well maintained.If you don't mind fluff on the carpet and book a room on the top floor, I think you will be happy with your choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r431678082-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>431678082</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Visited 2 times</t>
+  </si>
+  <si>
+    <t>Our Granddaughter plays volleyball for Cherokee Trail High School and we had traveled to watch her matches.  We traveled  2 times in Oct.  As my husband was having leg problems it was better for us to stay here where there were no stairs.  Was not happy having to book on line rather than on the phone to the hotel itself. But to get the best rate this is how we  had to do it.  Very pleased with our room, the first one was a little closer to the elevator as I had requested and was a little larger than the 2nd.  They are nice rooms and the beds were very comfortable and a selection of pillows.  Nice vanity area in the bath room, with a good shower head and fast hot water.  Plenty of towel and wash cloths, thick and nice.  Microwave and fridge.  Large TV.  We were on the highway side of the hotel, but did not hear any of the traffic noise.  Good breakfast selection fresh fruit, oatmeal, scrambled eggs , waffles, bacon.  Large dining area.   Had friendly and helpful front desk people each trip.  We will certainly return again.  As this hotel sits very close to a large shopping area with several eating areas and a theater fills most peoples desires.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Our Granddaughter plays volleyball for Cherokee Trail High School and we had traveled to watch her matches.  We traveled  2 times in Oct.  As my husband was having leg problems it was better for us to stay here where there were no stairs.  Was not happy having to book on line rather than on the phone to the hotel itself. But to get the best rate this is how we  had to do it.  Very pleased with our room, the first one was a little closer to the elevator as I had requested and was a little larger than the 2nd.  They are nice rooms and the beds were very comfortable and a selection of pillows.  Nice vanity area in the bath room, with a good shower head and fast hot water.  Plenty of towel and wash cloths, thick and nice.  Microwave and fridge.  Large TV.  We were on the highway side of the hotel, but did not hear any of the traffic noise.  Good breakfast selection fresh fruit, oatmeal, scrambled eggs , waffles, bacon.  Large dining area.   Had friendly and helpful front desk people each trip.  We will certainly return again.  As this hotel sits very close to a large shopping area with several eating areas and a theater fills most peoples desires.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r428210414-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>428210414</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel Experience!!!😀</t>
+  </si>
+  <si>
+    <t>Great staff and very clean!! Would recommend their breakfast as well! Got a great rate thru Priceline. Was not missing anything even though the rate was low. Always have a good experience at Fairfield!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r427759380-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>427759380</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Needs a little tlc.</t>
+  </si>
+  <si>
+    <t>The location is near the freeway (I225).  It appears to be a recent acquisition by the Marriott chain.  Worn furniture in the lobby.  Dirty elevator. We had used Marriott points and were given a very small room next to the elevator.  Not what we usually given when we redeem our points.  We stayed here before an early flight out of DIA.  Not a bad location.  A 15-20 minute early morning drive.  We left too early to enjoy the free breakfast.  Coffee/tea were available.  Small microbits in corners and around furniture gave the impression that the room had been given a once over, and not a real cleaning. Drips and splashes of paint on tile in the bathroom on first appearance looked like spills, but on closer inspection I realized it was paint.  This property needed more of a total gut, not just a quick flip, to turn it into a Marriott level hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2016</t>
+  </si>
+  <si>
+    <t>The location is near the freeway (I225).  It appears to be a recent acquisition by the Marriott chain.  Worn furniture in the lobby.  Dirty elevator. We had used Marriott points and were given a very small room next to the elevator.  Not what we usually given when we redeem our points.  We stayed here before an early flight out of DIA.  Not a bad location.  A 15-20 minute early morning drive.  We left too early to enjoy the free breakfast.  Coffee/tea were available.  Small microbits in corners and around furniture gave the impression that the room had been given a once over, and not a real cleaning. Drips and splashes of paint on tile in the bathroom on first appearance looked like spills, but on closer inspection I realized it was paint.  This property needed more of a total gut, not just a quick flip, to turn it into a Marriott level hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r426468462-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>426468462</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>This hotel was centrally located to shopping, theater and family friends. It's an easy drive from the airport. Although the hotel had problems with the elevators, not enough coffee at breakfast time, it was clean and convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was centrally located to shopping, theater and family friends. It's an easy drive from the airport. Although the hotel had problems with the elevators, not enough coffee at breakfast time, it was clean and convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r424389141-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>424389141</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Wedding party</t>
+  </si>
+  <si>
+    <t>My first visit to Aurora Colorado which is a easy drive from Denver airport. Our choice for 4 nights placed us at the Fairfield Inn. This hotel was a simple 4 story with drive up to lobby to unload passenger's and luggage. The hotel was ideal for food, shopping and ease of access to the highway. The lobby was adequate, the free breakfast was good and the house keeping kept the room clean. A nice in door pool and clean room made the stay worthwhile. I feel the room rate was a bit pricey but overall we had no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>My first visit to Aurora Colorado which is a easy drive from Denver airport. Our choice for 4 nights placed us at the Fairfield Inn. This hotel was a simple 4 story with drive up to lobby to unload passenger's and luggage. The hotel was ideal for food, shopping and ease of access to the highway. The lobby was adequate, the free breakfast was good and the house keeping kept the room clean. A nice in door pool and clean room made the stay worthwhile. I feel the room rate was a bit pricey but overall we had no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r419571918-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>419571918</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>We stayed here on our last night of vacation to be close to  the airport. Hotel is clean and quiet and the location is great! One tip, don't search for restaurants on your phone, a lot of the new restaurants in the shopping close by aren't listed. I recommend walking or driving over as there are a ton of options. Our drive to the airport was only 20 minutes. Would definitely recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on our last night of vacation to be close to  the airport. Hotel is clean and quiet and the location is great! One tip, don't search for restaurants on your phone, a lot of the new restaurants in the shopping close by aren't listed. I recommend walking or driving over as there are a ton of options. Our drive to the airport was only 20 minutes. Would definitely recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r409431058-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>409431058</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Please read carefully!- Don't make this Mistake &gt; &gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>I selected this hotel despite the number of negative reviews simply because I really wanted to enjoy my time in Aurora by staying in the Southlands area.   I deeply regret the decision to ignore the reviews.  Upon arrival to the hotel after an early morning flight, we were greeted dryly by front desk staff.  Her conduct and body language suggested that she did not want to deal with us.  After explaining that we had arrived early and wanted to see if we would possibly check-in early, we were told we would not be able to check-in until at least 2:30 p.m. as rooms were not available and/or were not clean.  I tried to make additional remarks to the front desk clerk who seemed to not really want to respond or talk to me.   We left for a few hours in an effort to pass time.  After returning and sitting in the front lobby awaiting check-in, we noticed a few people come in who were allowed to check-in.  As we watched this unfold, the front desk clerk provided no further updates or communication as we watched this take place.  Of course I was furious.   I checked with some of the hotel housekeeping as they passed and was told that clean rooms were available.   We were only allowed to check in after the supervisor of housekeeping went to the front desk clerk and told her that clean rooms were available.   I asked...I selected this hotel despite the number of negative reviews simply because I really wanted to enjoy my time in Aurora by staying in the Southlands area.   I deeply regret the decision to ignore the reviews.  Upon arrival to the hotel after an early morning flight, we were greeted dryly by front desk staff.  Her conduct and body language suggested that she did not want to deal with us.  After explaining that we had arrived early and wanted to see if we would possibly check-in early, we were told we would not be able to check-in until at least 2:30 p.m. as rooms were not available and/or were not clean.  I tried to make additional remarks to the front desk clerk who seemed to not really want to respond or talk to me.   We left for a few hours in an effort to pass time.  After returning and sitting in the front lobby awaiting check-in, we noticed a few people come in who were allowed to check-in.  As we watched this unfold, the front desk clerk provided no further updates or communication as we watched this take place.  Of course I was furious.   I checked with some of the hotel housekeeping as they passed and was told that clean rooms were available.   We were only allowed to check in after the supervisor of housekeeping went to the front desk clerk and told her that clean rooms were available.   I asked if the General Manager was in and was told that he only works weekdays.  I got a business card from the front desk.  We were told that others were allowed to check in because they did the mobile check-in. We were given a handicap accessible room but it did not matter as long as we were able to check-in earlier than 2:30 p.m.  I immediately began to call Hotels.com and Marriott in an effort to place a complaint about the horrible customer service that we had just endured. After getting to the room, we started to relax and my girlfriend went to take a shower.  After hearing the water turned on in the shower, all of a sudden I heard a loud bang and bump.  She fell as soon as she got into the shower and bumped her head against the side of the tub as it was extremely slippery.  I went to assist her out of the tub and a large knot appeared at the top of her head.  Housekeeping on the floor was notified and I asked if a mat was available.   I was told that there wasn’t one available.   After housekeeping reported the incident to the front desk, the paramedics were called and they arrived to check out her injuries.  She had a small hematoma to her left frontal forehead and had a bad headache.  The paramedics offered to take her to the emergency room but services were declined as the only symptom at the time was a headache.  We were told to monitor her situation.  Within minutes of the paramedics leaving, the front desk clerk appeared and took information for an incident report.  She also stopped me in the hallway and stated that she had received a call from Marriott Customer relations and asked why I had called them.   I told her that I did not appreciate the way we were treated upon arrival and at check-in.  She seemed oblivious to what I was saying, as if she had done nothing.   She seemed upset at me for contacting Marriott customer relations and did not return with the water and Aleve that was promised for my girlfriend’s headache.  Instead, another employee returned with it and came into the room to check out the tub/shower area with apologies.    Also after further inspection of the room, the toilet seat was loose and water continuously dripped from the air conditioning unit for the entire stay.  We called the front desk and notified them but no one ever did anything.  I even attempted to call later that evening but nobody ever picked up the phone. We did not hear from the Front Desk Clerk (Tammy) the rest of that day or the next until she called the room on Monday after receiving multiple calls from Hotels.com regarding the complaints about the hotel.  I am so disappointed in Hotels.com as I had prepaid for the hotel stay through them and could not get reimbursed for any of the stay.  They passed the “buck” and continued to call the Front Desk Clerk (Tammy) who intercepted all their phone calls and would not refer them to the General Manager.  The front desk clerk (Tammy) called the room stating that she was the “gal” who had come to the room and completed the incident report.  Now this reference took the cake, it really revealed who were dealing with in terms of the conduct and body language that was displayed upon our arrival on Saturday.  I had thought that this type behavior would not be found in Colorado.  I do understand that one person’s conduct in no way reflects the culture of those who live in that area.   As a matter of fact, all other people we encountered this weekend were very hospitable and made our stay even better. As we prepared to leave, after talking with Tammy (the front desk clerk from the first day), we arrived to the front desk and another person was there who stated (as rehearsed) that incident reports were the private property of the hotel and that we could not get a receipt as it was prepaid.  It was as if the entire incident/stay at Fairfield Inn and Suites Denver Aurora/Parker never took place.  I have yet to get a call from the General Manager to this day.  I am posting this review on all the sites in an effort to warn anyone that the reviews for this hotel are TRUE so please do not bypass what you read.  I hate that I made the decision to ignore them just because I wanted to be in this area.  I also found out after reading additional reviews that there were other incidences of customers falling in the tub there.  Something definitely needs to be done as the General Manager obviously does not care that this continues to happen.​  ​After staying at several Marriott brands over the years with my job, I can honestly say that I have never experienced anything like this or the lack of customer service shown to me on this weekend. Adam G.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>I selected this hotel despite the number of negative reviews simply because I really wanted to enjoy my time in Aurora by staying in the Southlands area.   I deeply regret the decision to ignore the reviews.  Upon arrival to the hotel after an early morning flight, we were greeted dryly by front desk staff.  Her conduct and body language suggested that she did not want to deal with us.  After explaining that we had arrived early and wanted to see if we would possibly check-in early, we were told we would not be able to check-in until at least 2:30 p.m. as rooms were not available and/or were not clean.  I tried to make additional remarks to the front desk clerk who seemed to not really want to respond or talk to me.   We left for a few hours in an effort to pass time.  After returning and sitting in the front lobby awaiting check-in, we noticed a few people come in who were allowed to check-in.  As we watched this unfold, the front desk clerk provided no further updates or communication as we watched this take place.  Of course I was furious.   I checked with some of the hotel housekeeping as they passed and was told that clean rooms were available.   We were only allowed to check in after the supervisor of housekeeping went to the front desk clerk and told her that clean rooms were available.   I asked...I selected this hotel despite the number of negative reviews simply because I really wanted to enjoy my time in Aurora by staying in the Southlands area.   I deeply regret the decision to ignore the reviews.  Upon arrival to the hotel after an early morning flight, we were greeted dryly by front desk staff.  Her conduct and body language suggested that she did not want to deal with us.  After explaining that we had arrived early and wanted to see if we would possibly check-in early, we were told we would not be able to check-in until at least 2:30 p.m. as rooms were not available and/or were not clean.  I tried to make additional remarks to the front desk clerk who seemed to not really want to respond or talk to me.   We left for a few hours in an effort to pass time.  After returning and sitting in the front lobby awaiting check-in, we noticed a few people come in who were allowed to check-in.  As we watched this unfold, the front desk clerk provided no further updates or communication as we watched this take place.  Of course I was furious.   I checked with some of the hotel housekeeping as they passed and was told that clean rooms were available.   We were only allowed to check in after the supervisor of housekeeping went to the front desk clerk and told her that clean rooms were available.   I asked if the General Manager was in and was told that he only works weekdays.  I got a business card from the front desk.  We were told that others were allowed to check in because they did the mobile check-in. We were given a handicap accessible room but it did not matter as long as we were able to check-in earlier than 2:30 p.m.  I immediately began to call Hotels.com and Marriott in an effort to place a complaint about the horrible customer service that we had just endured. After getting to the room, we started to relax and my girlfriend went to take a shower.  After hearing the water turned on in the shower, all of a sudden I heard a loud bang and bump.  She fell as soon as she got into the shower and bumped her head against the side of the tub as it was extremely slippery.  I went to assist her out of the tub and a large knot appeared at the top of her head.  Housekeeping on the floor was notified and I asked if a mat was available.   I was told that there wasn’t one available.   After housekeeping reported the incident to the front desk, the paramedics were called and they arrived to check out her injuries.  She had a small hematoma to her left frontal forehead and had a bad headache.  The paramedics offered to take her to the emergency room but services were declined as the only symptom at the time was a headache.  We were told to monitor her situation.  Within minutes of the paramedics leaving, the front desk clerk appeared and took information for an incident report.  She also stopped me in the hallway and stated that she had received a call from Marriott Customer relations and asked why I had called them.   I told her that I did not appreciate the way we were treated upon arrival and at check-in.  She seemed oblivious to what I was saying, as if she had done nothing.   She seemed upset at me for contacting Marriott customer relations and did not return with the water and Aleve that was promised for my girlfriend’s headache.  Instead, another employee returned with it and came into the room to check out the tub/shower area with apologies.    Also after further inspection of the room, the toilet seat was loose and water continuously dripped from the air conditioning unit for the entire stay.  We called the front desk and notified them but no one ever did anything.  I even attempted to call later that evening but nobody ever picked up the phone. We did not hear from the Front Desk Clerk (Tammy) the rest of that day or the next until she called the room on Monday after receiving multiple calls from Hotels.com regarding the complaints about the hotel.  I am so disappointed in Hotels.com as I had prepaid for the hotel stay through them and could not get reimbursed for any of the stay.  They passed the “buck” and continued to call the Front Desk Clerk (Tammy) who intercepted all their phone calls and would not refer them to the General Manager.  The front desk clerk (Tammy) called the room stating that she was the “gal” who had come to the room and completed the incident report.  Now this reference took the cake, it really revealed who were dealing with in terms of the conduct and body language that was displayed upon our arrival on Saturday.  I had thought that this type behavior would not be found in Colorado.  I do understand that one person’s conduct in no way reflects the culture of those who live in that area.   As a matter of fact, all other people we encountered this weekend were very hospitable and made our stay even better. As we prepared to leave, after talking with Tammy (the front desk clerk from the first day), we arrived to the front desk and another person was there who stated (as rehearsed) that incident reports were the private property of the hotel and that we could not get a receipt as it was prepaid.  It was as if the entire incident/stay at Fairfield Inn and Suites Denver Aurora/Parker never took place.  I have yet to get a call from the General Manager to this day.  I am posting this review on all the sites in an effort to warn anyone that the reviews for this hotel are TRUE so please do not bypass what you read.  I hate that I made the decision to ignore them just because I wanted to be in this area.  I also found out after reading additional reviews that there were other incidences of customers falling in the tub there.  Something definitely needs to be done as the General Manager obviously does not care that this continues to happen.​  ​After staying at several Marriott brands over the years with my job, I can honestly say that I have never experienced anything like this or the lack of customer service shown to me on this weekend. Adam G.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r409387282-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>409387282</t>
+  </si>
+  <si>
+    <t>Great location, bad customer service.</t>
+  </si>
+  <si>
+    <t>We stayed here Aug20-22 2016. This hotel is in a great location and close to lots of shopping and dining. The room was clean and had average amenities. Room was a nice size with small fridge and microwave. Breakfast daily was average. Our bed was not very comfy and pillows were not comfy. I called front desk for more pillows at 10 pm and no answer. Fine, we will just deal with it. We went to breakfast the next day at about 9am. We left the do not disturb on our door so maids would not enter. They were in the hall as we left. Came back 15 min later, they were still in the hall. Removed door tag and left the room at 10:15. 1 maid was in the hall. We returned at 5:30 and room was not cleaned. We called guest services, no answer. Front desk not answer. We did this multible times... We were not happy. We went to the front desk and saw 2 employees chatting. We told them the problem and they said sorry. So we asked if we could have it cleaned, And they looked at us like we were crazy.. After a moment of nothing and one of them just shrugged. We ask then can we at least have clean towels sent to our room. And they did bring those later.
+When we left the hotel on our departure. I got my bill...We stayed here Aug20-22 2016. This hotel is in a great location and close to lots of shopping and dining. The room was clean and had average amenities. Room was a nice size with small fridge and microwave. Breakfast daily was average. Our bed was not very comfy and pillows were not comfy. I called front desk for more pillows at 10 pm and no answer. Fine, we will just deal with it. We went to breakfast the next day at about 9am. We left the do not disturb on our door so maids would not enter. They were in the hall as we left. Came back 15 min later, they were still in the hall. Removed door tag and left the room at 10:15. 1 maid was in the hall. We returned at 5:30 and room was not cleaned. We called guest services, no answer. Front desk not answer. We did this multible times... We were not happy. We went to the front desk and saw 2 employees chatting. We told them the problem and they said sorry. So we asked if we could have it cleaned, And they looked at us like we were crazy.. After a moment of nothing and one of them just shrugged. We ask then can we at least have clean towels sent to our room. And they did bring those later.When we left the hotel on our departure. I got my bill slipped under the door. We exited the room, I forgot to call the front desk and check out. I approached the front desk. Two people were standing, I said I need to check out and she asked if the bill was correct. Yes it was. I handed her the keys and told her my room number and she laid them down and said, I will check you out. I waited for a second and she said anything else. I said no and left. But when I saw her law the keys down and continue talking, it bothered me. That was at 8:10 am.I have the Marriott App on my phone. At the airport I opened the app at 10:25. It still showed our reservation. I clicked on it and it asked me if I wanted to check out!! So I checked out myself. I should have done it this way in the first place. Talking to front desk was was like talking to a brick wall. Unhappy with this hotel and will find another place to stay when in the area..MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here Aug20-22 2016. This hotel is in a great location and close to lots of shopping and dining. The room was clean and had average amenities. Room was a nice size with small fridge and microwave. Breakfast daily was average. Our bed was not very comfy and pillows were not comfy. I called front desk for more pillows at 10 pm and no answer. Fine, we will just deal with it. We went to breakfast the next day at about 9am. We left the do not disturb on our door so maids would not enter. They were in the hall as we left. Came back 15 min later, they were still in the hall. Removed door tag and left the room at 10:15. 1 maid was in the hall. We returned at 5:30 and room was not cleaned. We called guest services, no answer. Front desk not answer. We did this multible times... We were not happy. We went to the front desk and saw 2 employees chatting. We told them the problem and they said sorry. So we asked if we could have it cleaned, And they looked at us like we were crazy.. After a moment of nothing and one of them just shrugged. We ask then can we at least have clean towels sent to our room. And they did bring those later.
+When we left the hotel on our departure. I got my bill...We stayed here Aug20-22 2016. This hotel is in a great location and close to lots of shopping and dining. The room was clean and had average amenities. Room was a nice size with small fridge and microwave. Breakfast daily was average. Our bed was not very comfy and pillows were not comfy. I called front desk for more pillows at 10 pm and no answer. Fine, we will just deal with it. We went to breakfast the next day at about 9am. We left the do not disturb on our door so maids would not enter. They were in the hall as we left. Came back 15 min later, they were still in the hall. Removed door tag and left the room at 10:15. 1 maid was in the hall. We returned at 5:30 and room was not cleaned. We called guest services, no answer. Front desk not answer. We did this multible times... We were not happy. We went to the front desk and saw 2 employees chatting. We told them the problem and they said sorry. So we asked if we could have it cleaned, And they looked at us like we were crazy.. After a moment of nothing and one of them just shrugged. We ask then can we at least have clean towels sent to our room. And they did bring those later.When we left the hotel on our departure. I got my bill slipped under the door. We exited the room, I forgot to call the front desk and check out. I approached the front desk. Two people were standing, I said I need to check out and she asked if the bill was correct. Yes it was. I handed her the keys and told her my room number and she laid them down and said, I will check you out. I waited for a second and she said anything else. I said no and left. But when I saw her law the keys down and continue talking, it bothered me. That was at 8:10 am.I have the Marriott App on my phone. At the airport I opened the app at 10:25. It still showed our reservation. I clicked on it and it asked me if I wanted to check out!! So I checked out myself. I should have done it this way in the first place. Talking to front desk was was like talking to a brick wall. Unhappy with this hotel and will find another place to stay when in the area..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r409324949-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>409324949</t>
+  </si>
+  <si>
+    <t>Clean Hotel With Friendly Staff in The Southlands Shopping Complex</t>
+  </si>
+  <si>
+    <t>Our family took a road trip from Chicago out to Aurora and arrived earlier than expected on a Friday morning. We explained to the receptionist that we were just on the road for for 14 hours and we thought we would try our luck for an extra early check-in.  She regretfully informed us that there were no rooms open yet but that we should help ourselves to the complimentary breakfast since were going to be staying the next two nights anyway.  She did not have to do that since we were technically not guests yet, but offered anyway.After checking in, the room was clean and bright with a beautiful view.  We did bring our swim trunks and were able to enjoy the pool and hot tub on site.  Water was great temperature and not overly chlorinated as you find in a lot of public pools.No restaurant is needed on site as there are literally over a dozen within walking distance to the hotel with plenty of shopping at The Southlands for everyone also nearby.  Movie Theater is in the complex as well as just about everything else you need.  You can park and forget the car.Very nice, clean Hotel with plenty of amenities nearby for everyone.  We will stay here again on our next family visit to Aurora.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family took a road trip from Chicago out to Aurora and arrived earlier than expected on a Friday morning. We explained to the receptionist that we were just on the road for for 14 hours and we thought we would try our luck for an extra early check-in.  She regretfully informed us that there were no rooms open yet but that we should help ourselves to the complimentary breakfast since were going to be staying the next two nights anyway.  She did not have to do that since we were technically not guests yet, but offered anyway.After checking in, the room was clean and bright with a beautiful view.  We did bring our swim trunks and were able to enjoy the pool and hot tub on site.  Water was great temperature and not overly chlorinated as you find in a lot of public pools.No restaurant is needed on site as there are literally over a dozen within walking distance to the hotel with plenty of shopping at The Southlands for everyone also nearby.  Movie Theater is in the complex as well as just about everything else you need.  You can park and forget the car.Very nice, clean Hotel with plenty of amenities nearby for everyone.  We will stay here again on our next family visit to Aurora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r396412188-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>396412188</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Great customer service - perfect location</t>
+  </si>
+  <si>
+    <t>Anyone coming to Denver whether business or pleasure will feel comfortable here. Our two nights here had a full house with a wedding  group and sports teams. We were placed on top floor and never heard a thing! The pool and whirlpool were well maintained. Shopping and restaurants close by. We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Anyone coming to Denver whether business or pleasure will feel comfortable here. Our two nights here had a full house with a wedding  group and sports teams. We were placed on top floor and never heard a thing! The pool and whirlpool were well maintained. Shopping and restaurants close by. We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r394488185-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>394488185</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Location is it's strong suit</t>
+  </si>
+  <si>
+    <t>When you think of a Marriott hotel you usually think of near perfection and their pricing structure is on par to remind you they believe they are 'it'. Well this property did meet most options including location, staffing, amenities,  breakfast bar and the like. They performed well in these areas. They are grossly understaffed in housekeeping and getting your room cleaned may take most of the day. Our room found lukewarm water at best - quick showers..... A rating of 3.5 would be more fair but I would stay there again providing I had checked the room ahead for adequate hot water. MoreShow less</t>
+  </si>
+  <si>
+    <t>When you think of a Marriott hotel you usually think of near perfection and their pricing structure is on par to remind you they believe they are 'it'. Well this property did meet most options including location, staffing, amenities,  breakfast bar and the like. They performed well in these areas. They are grossly understaffed in housekeeping and getting your room cleaned may take most of the day. Our room found lukewarm water at best - quick showers..... A rating of 3.5 would be more fair but I would stay there again providing I had checked the room ahead for adequate hot water. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r391301429-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>391301429</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Tried it again</t>
+  </si>
+  <si>
+    <t>My second chance here went perfect.  Had no trouble checking in and it was super quick.  The beds were still very comfortable and had no other problems. A quick in and out weekend. It really is a good location and quick access to I470.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r387774737-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387774737</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Very Comfortable Hotel with Friendly Staff</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for 4 nights while in town for our sons wedding.  The room was a great size; very comfortable with plenty of room for all the "wedding" stuff we had with us. The king bed was soooooo comfortable and the room was well appointed and clean.  The complementary breakfast was very good and the staff was friendly and always ready to take care of any little thing we needed.  Good location; next to large shopping facility with lots of good restaurant choices.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r385948034-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385948034</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms, Standard Breakfast, poor parking, Way Overpriced</t>
+  </si>
+  <si>
+    <t>I stayed here because it was close to where i was going. But on a long trip this was the highest priced motel and i didn't get anything not offered at the other places i stayed at. Well, if people pay it, why should they change???Room ok, but limited cable selection. There is a little gym area. Not sure if there's a pool. The breakfast was exactly the same as that i received in many less-expensive properties.For paying that much, the parking spots weren't even reasonable--they were too narrow, leaving you open to door dings from the typical driver who doesn't pay attention to how she opens her door. I had to drive around several times til I found something i thought might work.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here because it was close to where i was going. But on a long trip this was the highest priced motel and i didn't get anything not offered at the other places i stayed at. Well, if people pay it, why should they change???Room ok, but limited cable selection. There is a little gym area. Not sure if there's a pool. The breakfast was exactly the same as that i received in many less-expensive properties.For paying that much, the parking spots weren't even reasonable--they were too narrow, leaving you open to door dings from the typical driver who doesn't pay attention to how she opens her door. I had to drive around several times til I found something i thought might work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r385313689-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385313689</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Unneccesary frustration</t>
+  </si>
+  <si>
+    <t>Booked 2 rooms for our large family and requested multiple times to have adjoining rooms.  Before arriving I called to see if they were able to honor the request and I was informed a request was never noted on the reservation and the rooms were even on seperate floors and when I asked for a manager I was told there was no Manager that day(A SATURDAY!) When I arrived they had managed to get rooms accross from each other which was great but the initial frustration which included having to call other hotels as a backup was enough to make me look elsewhere next time I need a nearby hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked 2 rooms for our large family and requested multiple times to have adjoining rooms.  Before arriving I called to see if they were able to honor the request and I was informed a request was never noted on the reservation and the rooms were even on seperate floors and when I asked for a manager I was told there was no Manager that day(A SATURDAY!) When I arrived they had managed to get rooms accross from each other which was great but the initial frustration which included having to call other hotels as a backup was enough to make me look elsewhere next time I need a nearby hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r381601836-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>381601836</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>My husband and I have a rental property in Aurora so we wanted to stay in a place that was convenient, provided free parking and places to walk.  We got all of those at this Fairfield Inn.  We only stayed 3 nights, but it was very easy to get to our rental property and we took a day to go to Boulder - very easy getting.  We took the toll road and that was great - wide open, hardly any traffic.  We went on a Thursday so I'm sure that was part of the reason why the traffic was light.  The hotel sits on the Southlands Mall property - there is a restaurant right across the way called the Village Inn.  We didn't go there but saw many people walk over to grab a bite.  We walked around the shops and found a great little Latin restaurant - we really enjoyed it.  Sat outside - the weather was perfect during our stay.  The hotel seemed great for families - we saw many.  There is an indoor pool and hot tub - we didn't use either, but everytime we passed by, there were lots of kids and parents.  There is a nice, small patio off to the side of the indoor pool where people can take in the sun - we had a late lunch out there one day.  It was great.  The staff originally put us in a 2nd floor...My husband and I have a rental property in Aurora so we wanted to stay in a place that was convenient, provided free parking and places to walk.  We got all of those at this Fairfield Inn.  We only stayed 3 nights, but it was very easy to get to our rental property and we took a day to go to Boulder - very easy getting.  We took the toll road and that was great - wide open, hardly any traffic.  We went on a Thursday so I'm sure that was part of the reason why the traffic was light.  The hotel sits on the Southlands Mall property - there is a restaurant right across the way called the Village Inn.  We didn't go there but saw many people walk over to grab a bite.  We walked around the shops and found a great little Latin restaurant - we really enjoyed it.  Sat outside - the weather was perfect during our stay.  The hotel seemed great for families - we saw many.  There is an indoor pool and hot tub - we didn't use either, but everytime we passed by, there were lots of kids and parents.  There is a nice, small patio off to the side of the indoor pool where people can take in the sun - we had a late lunch out there one day.  It was great.  The staff originally put us in a 2nd floor room, but there were kids in the room next door to us and they were quite disruptive so we asked to be moved to the top floor.  The staff moved us immediately  , which was great.  Unfortunately, there were kids on the top floor as well and at 11pm, they were still running the halls, locking each other out of rooms and making lots of noise.  We had to call downstairs in order to put a stop to that.  It eventually subsided.  We do not have children, but we do have nieces who we adore.  I would never let them run wild in a hotel at 11pm at night.  It is a total disregard of patrons.  Luckily, the staff at this hotel said something to get the parents attention and we were able to fall asleep.  The beds are okay - not great, but we didn't wake up with any discomfort.  The complimentary breakfast is nice - healthy options (oatmeal, fruit, yogurt) as well as bagels, pastries, eggs and bacon.  Plenty of room to sit and enjoy the Denver mornings.  This is a great hotel for a quick stay and we'll definitely come back in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I have a rental property in Aurora so we wanted to stay in a place that was convenient, provided free parking and places to walk.  We got all of those at this Fairfield Inn.  We only stayed 3 nights, but it was very easy to get to our rental property and we took a day to go to Boulder - very easy getting.  We took the toll road and that was great - wide open, hardly any traffic.  We went on a Thursday so I'm sure that was part of the reason why the traffic was light.  The hotel sits on the Southlands Mall property - there is a restaurant right across the way called the Village Inn.  We didn't go there but saw many people walk over to grab a bite.  We walked around the shops and found a great little Latin restaurant - we really enjoyed it.  Sat outside - the weather was perfect during our stay.  The hotel seemed great for families - we saw many.  There is an indoor pool and hot tub - we didn't use either, but everytime we passed by, there were lots of kids and parents.  There is a nice, small patio off to the side of the indoor pool where people can take in the sun - we had a late lunch out there one day.  It was great.  The staff originally put us in a 2nd floor...My husband and I have a rental property in Aurora so we wanted to stay in a place that was convenient, provided free parking and places to walk.  We got all of those at this Fairfield Inn.  We only stayed 3 nights, but it was very easy to get to our rental property and we took a day to go to Boulder - very easy getting.  We took the toll road and that was great - wide open, hardly any traffic.  We went on a Thursday so I'm sure that was part of the reason why the traffic was light.  The hotel sits on the Southlands Mall property - there is a restaurant right across the way called the Village Inn.  We didn't go there but saw many people walk over to grab a bite.  We walked around the shops and found a great little Latin restaurant - we really enjoyed it.  Sat outside - the weather was perfect during our stay.  The hotel seemed great for families - we saw many.  There is an indoor pool and hot tub - we didn't use either, but everytime we passed by, there were lots of kids and parents.  There is a nice, small patio off to the side of the indoor pool where people can take in the sun - we had a late lunch out there one day.  It was great.  The staff originally put us in a 2nd floor room, but there were kids in the room next door to us and they were quite disruptive so we asked to be moved to the top floor.  The staff moved us immediately  , which was great.  Unfortunately, there were kids on the top floor as well and at 11pm, they were still running the halls, locking each other out of rooms and making lots of noise.  We had to call downstairs in order to put a stop to that.  It eventually subsided.  We do not have children, but we do have nieces who we adore.  I would never let them run wild in a hotel at 11pm at night.  It is a total disregard of patrons.  Luckily, the staff at this hotel said something to get the parents attention and we were able to fall asleep.  The beds are okay - not great, but we didn't wake up with any discomfort.  The complimentary breakfast is nice - healthy options (oatmeal, fruit, yogurt) as well as bagels, pastries, eggs and bacon.  Plenty of room to sit and enjoy the Denver mornings.  This is a great hotel for a quick stay and we'll definitely come back in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r379681764-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>379681764</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Great Property</t>
+  </si>
+  <si>
+    <t>The overall hotel was great. It was in close proximity to shops and restaurants, as well as the Denver Airport. The staff was exceptional, especially the lady in the Breakfast Room. I was hurrying to the airport and she packed me a bag with an apple, banana and a mini-muffin!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r377195412-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>377195412</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Once again..a PERFECT stay!</t>
+  </si>
+  <si>
+    <t>We will continue to stay here each time we come to Denver.  We were treated so royally by all the staff. Every little item was just perfect. The front desk Manager went above and beyond for not only us but for other guests we observed. It feels better than home...quiet, comfortable, clean. Thank you to staff and management!!!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r362909624-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>362909624</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>A pleasant experience</t>
+  </si>
+  <si>
+    <t>I traveled to Denver for business, and stayed here on the recommendation of a co-worker.  I arrived early, was warmly greeted, and receivied a bottle of water and a Lara bar.  I will be staying for future trips to the area.  My room was clean, the free breakfast was decent, and the fitness center sufficed.  The hotel's close proximity to Southlands Mall lent itself to good dinner options.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r357601196-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>357601196</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>A solid choice, convenient to dining and shopping options</t>
+  </si>
+  <si>
+    <t>We stayed for two nights (this is our second stay at this property).  The condition of the property is excellent - the common areas and our room were spotless.  Check-in was easy, and the staff was pleasant.  While not a cooked to order breakfast, there were plenty of choices, and we had no complaints.  The location is great in terms of shopping and dining choices, as almost everything in Southlands is within walking distance if you don't have a car.  The only caveat about location is that, if you aren't careful, you'll end up on the E-470 toll road, and if you aren't familiar with it, take a look at the voluminous complaints on the E-470 Facebook page.  We have had our own nightmare dealing with this toll road on our previous stay and simply used navigation to avoid the toll road.  Problem solved.  The only other negative was that the air conditioning was a bit lackluster.   Our room never got below 72.   Otherwise, we'd have given the property a 5. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for two nights (this is our second stay at this property).  The condition of the property is excellent - the common areas and our room were spotless.  Check-in was easy, and the staff was pleasant.  While not a cooked to order breakfast, there were plenty of choices, and we had no complaints.  The location is great in terms of shopping and dining choices, as almost everything in Southlands is within walking distance if you don't have a car.  The only caveat about location is that, if you aren't careful, you'll end up on the E-470 toll road, and if you aren't familiar with it, take a look at the voluminous complaints on the E-470 Facebook page.  We have had our own nightmare dealing with this toll road on our previous stay and simply used navigation to avoid the toll road.  Problem solved.  The only other negative was that the air conditioning was a bit lackluster.   Our room never got below 72.   Otherwise, we'd have given the property a 5. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r348176557-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>348176557</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>If the stench of marijuana in the hallways and elevators is your thing, you'll love it!</t>
+  </si>
+  <si>
+    <t>The elevator and 2nd floor hallway smelled horribly like marijuana. Talked to the front desk. They said they know it's considered a public place but they still can't do much about it. I suppose if somebody was smoking cigarettes, they'd have been all over it! The breakfast was well below average (powdered eggs). The rooms are very loud and we could follow along in a conversation from the folks upstairs word for word!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Suzan F, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>The elevator and 2nd floor hallway smelled horribly like marijuana. Talked to the front desk. They said they know it's considered a public place but they still can't do much about it. I suppose if somebody was smoking cigarettes, they'd have been all over it! The breakfast was well below average (powdered eggs). The rooms are very loud and we could follow along in a conversation from the folks upstairs word for word!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r338536016-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>338536016</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Modern facilities, New construction, Good neighbourhood</t>
+  </si>
+  <si>
+    <t>I stayed here for few nights and had a good overall experience staying here. Pros:1) Nice and clean hotel2) Modern facilities3) Good room service4) Free Breakfast5) Nice and clean rooms.4) Good valued hotel for the price i paid. I would recommend to try and stay here. very standard.  Please note timings for breakfast varies for weekday and weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Suzan F, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for few nights and had a good overall experience staying here. Pros:1) Nice and clean hotel2) Modern facilities3) Good room service4) Free Breakfast5) Nice and clean rooms.4) Good valued hotel for the price i paid. I would recommend to try and stay here. very standard.  Please note timings for breakfast varies for weekday and weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r336317262-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>336317262</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Modern, great location</t>
+  </si>
+  <si>
+    <t>We have stayed here numerous times while visiting family.  It is a newer, modern hotel staffed with courteous, professional staff.  Rooms are spacious.  Beds are comfortable.  Breakfasts have always been above average and we'll attended.  Our last visit had a few housekeeping issues which we brought up to mgt who promised to make it right.  We'll go back, location is terrific by E470, shopping and restaurants &amp; near family.  It is located in a near the outskirts of the city and the price has been reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Suzan F, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here numerous times while visiting family.  It is a newer, modern hotel staffed with courteous, professional staff.  Rooms are spacious.  Beds are comfortable.  Breakfasts have always been above average and we'll attended.  Our last visit had a few housekeeping issues which we brought up to mgt who promised to make it right.  We'll go back, location is terrific by E470, shopping and restaurants &amp; near family.  It is located in a near the outskirts of the city and the price has been reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r335130289-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>335130289</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Newer construction, clean, safe, friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting family---because it's cheaper to get a hotel and preserve my sanity than to stay with family and have to pay for therapy ;)Pros: 1. Located near the E-470 toll road which will connect to all the major highways and easily get you throughout Aurora/Parker and into Denver. 2. Within walking distance of several major retail stores, restaurants, salons and other services.3. Pool, hot tub and gym are nice.4. Free continental breakfast which helps when you just need a quick bite to get your day started. Cons: 1. A bit noisy (I could hear the person in the room above snoring) 2. You are in the middle of suburbia-you will need to rent a car to get around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting family---because it's cheaper to get a hotel and preserve my sanity than to stay with family and have to pay for therapy ;)Pros: 1. Located near the E-470 toll road which will connect to all the major highways and easily get you throughout Aurora/Parker and into Denver. 2. Within walking distance of several major retail stores, restaurants, salons and other services.3. Pool, hot tub and gym are nice.4. Free continental breakfast which helps when you just need a quick bite to get your day started. Cons: 1. A bit noisy (I could hear the person in the room above snoring) 2. You are in the middle of suburbia-you will need to rent a car to get around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r331583055-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>331583055</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great surprise </t>
+  </si>
+  <si>
+    <t>I was in the Front Range on business and my agent booked this hotel and, wow, I'm so glad they did!  Great location for shopping, eating, and right off of E470 for easy access to airport and other locations.  The hotel is extremely well maintained and the staff cheery and knowledgeable.  The hot breakfast was super.  I'll stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r326085610-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>326085610</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Perfect hotel location when visiting Denver.</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn &amp; Suites Aurora/Parker.  Perfect location. Convenient to E470 so quick to head East where my family lives.. Close to C470 which made travel to Golden and the foothills quick. Located in Southlands Mall so plenty of shopping and numerous restaurants within walking distance.  We stayed in a 2 room suite, but I have stayed here on another trip in a regular room. Both were great.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r325302065-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>325302065</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Location, Location - &amp; great local hospitality</t>
+  </si>
+  <si>
+    <t>I chose this hotel for the fact that it was right smack in the middle of one of my favorite pastime locations; a huge  outdoor shopping mall, and it's a Marriott - known for top grade accomodations. My first night was a big mistake; booking on a weekend. The hotel is a local favorite and is pretty filled and noisy busy. If you want quiet, check in on a Sunday or Monday. I was in Denver for family and fun, so noise of doors and elevators, other activity wasn't the issue for me. The first room was a disaster - seemed to me that I got stuck with the employee smoking room - and it was a handicapped suite! Granted, they were attempting to give me a plus since they were overbooked and it was a lower close to street room, but it was cavernous, dirty and smokey.  Of course, I was "not happy". Speaking to desk staff was at first not encouraging but they did do the right thing and let their Manager know. That's when my stay went from stinky to stately. The manager said he'd make it right - and he did. I like that he was there early Sunday morning as well as the rest of the week.  The new room was a 100% improvement with a great sky view and Marriott clean. I highly recommend this hotel. If you're penny-pinching, there's a free breakfast daily...I chose this hotel for the fact that it was right smack in the middle of one of my favorite pastime locations; a huge  outdoor shopping mall, and it's a Marriott - known for top grade accomodations. My first night was a big mistake; booking on a weekend. The hotel is a local favorite and is pretty filled and noisy busy. If you want quiet, check in on a Sunday or Monday. I was in Denver for family and fun, so noise of doors and elevators, other activity wasn't the issue for me. The first room was a disaster - seemed to me that I got stuck with the employee smoking room - and it was a handicapped suite! Granted, they were attempting to give me a plus since they were overbooked and it was a lower close to street room, but it was cavernous, dirty and smokey.  Of course, I was "not happy". Speaking to desk staff was at first not encouraging but they did do the right thing and let their Manager know. That's when my stay went from stinky to stately. The manager said he'd make it right - and he did. I like that he was there early Sunday morning as well as the rest of the week.  The new room was a 100% improvement with a great sky view and Marriott clean. I highly recommend this hotel. If you're penny-pinching, there's a free breakfast daily in the lobby. The pool is small but acceptable with an area outside to lounge. Within yards is one of the best breakfast spots in Aurora - fantastic, friendly service, great food and coffee. A few feet further is the first all night drive through custard joint I've ever seen, but then this is in Colorado, where getting the munchees is probably now an official activity.  The outdoor mall has all the great stores and even a green market on the weekend and a post office to send all my new purchases home for less than a checked in bag on the airlines. The bad first day experience was a great opportunity for Marriott to show how it does hotel - and they get 5 stars from me for location, facility, customer care and management.MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel for the fact that it was right smack in the middle of one of my favorite pastime locations; a huge  outdoor shopping mall, and it's a Marriott - known for top grade accomodations. My first night was a big mistake; booking on a weekend. The hotel is a local favorite and is pretty filled and noisy busy. If you want quiet, check in on a Sunday or Monday. I was in Denver for family and fun, so noise of doors and elevators, other activity wasn't the issue for me. The first room was a disaster - seemed to me that I got stuck with the employee smoking room - and it was a handicapped suite! Granted, they were attempting to give me a plus since they were overbooked and it was a lower close to street room, but it was cavernous, dirty and smokey.  Of course, I was "not happy". Speaking to desk staff was at first not encouraging but they did do the right thing and let their Manager know. That's when my stay went from stinky to stately. The manager said he'd make it right - and he did. I like that he was there early Sunday morning as well as the rest of the week.  The new room was a 100% improvement with a great sky view and Marriott clean. I highly recommend this hotel. If you're penny-pinching, there's a free breakfast daily...I chose this hotel for the fact that it was right smack in the middle of one of my favorite pastime locations; a huge  outdoor shopping mall, and it's a Marriott - known for top grade accomodations. My first night was a big mistake; booking on a weekend. The hotel is a local favorite and is pretty filled and noisy busy. If you want quiet, check in on a Sunday or Monday. I was in Denver for family and fun, so noise of doors and elevators, other activity wasn't the issue for me. The first room was a disaster - seemed to me that I got stuck with the employee smoking room - and it was a handicapped suite! Granted, they were attempting to give me a plus since they were overbooked and it was a lower close to street room, but it was cavernous, dirty and smokey.  Of course, I was "not happy". Speaking to desk staff was at first not encouraging but they did do the right thing and let their Manager know. That's when my stay went from stinky to stately. The manager said he'd make it right - and he did. I like that he was there early Sunday morning as well as the rest of the week.  The new room was a 100% improvement with a great sky view and Marriott clean. I highly recommend this hotel. If you're penny-pinching, there's a free breakfast daily in the lobby. The pool is small but acceptable with an area outside to lounge. Within yards is one of the best breakfast spots in Aurora - fantastic, friendly service, great food and coffee. A few feet further is the first all night drive through custard joint I've ever seen, but then this is in Colorado, where getting the munchees is probably now an official activity.  The outdoor mall has all the great stores and even a green market on the weekend and a post office to send all my new purchases home for less than a checked in bag on the airlines. The bad first day experience was a great opportunity for Marriott to show how it does hotel - and they get 5 stars from me for location, facility, customer care and management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r310799145-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>310799145</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>The only reason that this hotel did not get 5 stars is because it is not a 5 star-type hotel.  For a Fairfield Inn and Suites, it was terrific.  The staff was wonderful and the property was very clean and well maintained.  I stayed for three nights in Sept 2015 for a medical emergency in the family and it was perfect.  Check in was easy, the beds were comfortable and the breakfast was convenient.  Shoppinng at The Southlands is within walking distance and there are lots of restaurants nearby.  I'll be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r310591592-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>310591592</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location</t>
+  </si>
+  <si>
+    <t>We were in Aurora for a wedding and reception and this looked to be an ideal location. My wife and I checked in for a two night stay on Friday. We had booked a room for our daughter, son-in-law and two granddaughters for Saturday. When we told the front desk about the wedding they gave us a lower wedding rate. We were impressed with the staff, the rooms and the pool, which the granddaughters loved. Our room was very quiet but the other room apparently had noisy upstairs neighbors. The front desk was called several times to quiet them down. My wife and I like to take little one night getaways and this will definitely be in the rotation!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We were in Aurora for a wedding and reception and this looked to be an ideal location. My wife and I checked in for a two night stay on Friday. We had booked a room for our daughter, son-in-law and two granddaughters for Saturday. When we told the front desk about the wedding they gave us a lower wedding rate. We were impressed with the staff, the rooms and the pool, which the granddaughters loved. Our room was very quiet but the other room apparently had noisy upstairs neighbors. The front desk was called several times to quiet them down. My wife and I like to take little one night getaways and this will definitely be in the rotation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r308624899-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>308624899</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel in good location willing to go extra mile for guests.</t>
+  </si>
+  <si>
+    <t>I booked this room for my wife locally as a quick weekend getaway.  She needed a break from 4 kids.    The staff went out of their way to take care of us with a nice room, dining recommendations, and a friendly smile.The hotel was clean and comfortable.  Rooms were spacious and not cramped.  As some of the other reviewers mentioned, the air conditioner was loud.  There were no problems with noise from the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r301325949-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>301325949</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Noisy!!</t>
+  </si>
+  <si>
+    <t>Everything in my room was noisy - the AC was horribly noisy. Turned if off and realized that the fridge was noisy also.  The worst was the plumbing from the room above.  Thus hotel was obviously very cheaply built and outfitted.  Not up to standard at allMoreShow less</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded August 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2015</t>
+  </si>
+  <si>
+    <t>Everything in my room was noisy - the AC was horribly noisy. Turned if off and realized that the fridge was noisy also.  The worst was the plumbing from the room above.  Thus hotel was obviously very cheaply built and outfitted.  Not up to standard at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r296831838-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>296831838</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>New Fairfield Inn - Very Nice</t>
+  </si>
+  <si>
+    <t>Very nice property for a Fairfield Inn.  I wish they were all this good.  Clean,  great staff.  I would stay here next time I'm in the area.  Pool area is nice.  Jacuzzi was cold.  Not much more to say to complete 200 words.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r296000979-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>296000979</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Great stay.............</t>
+  </si>
+  <si>
+    <t>I booked this hotel for my family because one of my family members are allergic to my dogs. I live very close to this hotel. Checking in was a breeze and the gentleman was so nice and even brought a roll a way bed because they grandkids wanted to stay with their grandma. The room was really nice and big. very clean and treated my family members like family. I am a travel agent and will tell everyone in this area to book this hotel. A plus service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r291019205-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>291019205</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Great Location Bad Service</t>
+  </si>
+  <si>
+    <t>I chose to stay here given proximity to Southlands, 470, and plenty restaurant options.  I arrived late with my family, my reservation had a problem forcing me to seek an alternative rather late with tired family in tow.  There was no apology and rather unpleasant employees at the counter.  The property has potential but they need to better understand the value of customer service MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>I chose to stay here given proximity to Southlands, 470, and plenty restaurant options.  I arrived late with my family, my reservation had a problem forcing me to seek an alternative rather late with tired family in tow.  There was no apology and rather unpleasant employees at the counter.  The property has potential but they need to better understand the value of customer service More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r285826215-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>285826215</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>The worst Marriott experience ever!</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights to be near family, hotel fully booked with sports teams (girls), hotel is not clean and noisy if you are on the first floor, outside front and sides of hotel littered with cigarette butts and food containers, no trash or cigarette bins. We stayed in a disability room where the wheelchair access shower floor sloped into the bathroom floor, causing major flooding on the floor, continuing onto the carpet outside the bathroom door. spoke to hotel personnel who are aware of this potentially hazardous condition and are "working on new shower curtain" this is not the answer. Complete power outage with no one from the hotel checking on disabled guests on Friday. Breakfast July 4 a disaster, everything runs out! frozen butter, coffee, people forced to sit everywhere as the furniture layout of the lobby is ridiculous. I am shocked that there is not a better choice in the Southlands Mall!MoreShow less</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights to be near family, hotel fully booked with sports teams (girls), hotel is not clean and noisy if you are on the first floor, outside front and sides of hotel littered with cigarette butts and food containers, no trash or cigarette bins. We stayed in a disability room where the wheelchair access shower floor sloped into the bathroom floor, causing major flooding on the floor, continuing onto the carpet outside the bathroom door. spoke to hotel personnel who are aware of this potentially hazardous condition and are "working on new shower curtain" this is not the answer. Complete power outage with no one from the hotel checking on disabled guests on Friday. Breakfast July 4 a disaster, everything runs out! frozen butter, coffee, people forced to sit everywhere as the furniture layout of the lobby is ridiculous. I am shocked that there is not a better choice in the Southlands Mall!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r283684529-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>283684529</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable and great breakfast</t>
+  </si>
+  <si>
+    <t>We stayed in a king suite with our 3 young children.  Wonderful stay and we will definitely be back next time we are here to visit family!   Hot breakfast, a rollaway bed option, and a roomy suite with a jack and Jill entrances to bathroom = a super comfortable luxurious stay!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r278207330-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>278207330</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, great location, excellent service!</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites by Marriott is located near the Southland mall area: Walmart, Movie theaters, Village Inn, Bbq place, sushi, On the Border,book stores, among other amenities. The hotel offered very nice and comfortable rooms. Staff was friendly and breakfast was served always on time. We did not use the pool but it available for guests to use; it was very clean. The hotel is located near major roads and highways, and a few miles away from the Airport. There is plenty of parking space for guest.Rooms and bathrooms were clean.Sleep quality: goodNoise level: Medium to moderate. Beds: comfortableConvenience store: located at lobbyComputers for guest: available and free WIFI: freeParking: availableStaff: friendlyContinental Breakfast: served in the morningConclusion: this is a very nice hotel that offers a good location, reasonable prices and a nice environment. Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded June 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2015</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites by Marriott is located near the Southland mall area: Walmart, Movie theaters, Village Inn, Bbq place, sushi, On the Border,book stores, among other amenities. The hotel offered very nice and comfortable rooms. Staff was friendly and breakfast was served always on time. We did not use the pool but it available for guests to use; it was very clean. The hotel is located near major roads and highways, and a few miles away from the Airport. There is plenty of parking space for guest.Rooms and bathrooms were clean.Sleep quality: goodNoise level: Medium to moderate. Beds: comfortableConvenience store: located at lobbyComputers for guest: available and free WIFI: freeParking: availableStaff: friendlyContinental Breakfast: served in the morningConclusion: this is a very nice hotel that offers a good location, reasonable prices and a nice environment. Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r275653086-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>275653086</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Paper Thin Walls</t>
+  </si>
+  <si>
+    <t>Updated hotel nice but no one spent money on the hotel walls in rooms. Really really loud no sleep what so ever. I think the parents in the neighborhood book rooms for there kids to party! Drink and get wasted oh yes the pool. Hope u don't mind the dead skin cells floating in the pool mmmmmm NASTY MoreShow less</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Updated hotel nice but no one spent money on the hotel walls in rooms. Really really loud no sleep what so ever. I think the parents in the neighborhood book rooms for there kids to party! Drink and get wasted oh yes the pool. Hope u don't mind the dead skin cells floating in the pool mmmmmm NASTY More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r273678827-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>273678827</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Spacious Living Area</t>
+  </si>
+  <si>
+    <t>The hotel is quiet and beautiful, the rooms and bathrooms are spacious. The accommodation also comes with   kitchenette and basic utensils for quick family meals. Another wow factor for travellers is it's location, which is within a not so high traffic shopping mall. Finally the price is cheap for what they offer.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r261564425-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>261564425</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>too many broken things.</t>
+  </si>
+  <si>
+    <t>i stayed here twice within a year.  never again.  the first time, the lights failed in the bathroom. they couldn't give me a lamp or anything.  eventually a repair man arrived an hour later, fixed the lights and left parts of the wall all over my things and the sink.  i was trying to get ready to leave,and they made me late as i cleaned up my things and left.  the second time, the door lock failed.  i reported it twice, and their idea was to make me test it with another key.  of course that didn't work, and had to go back to front desk and wait for someone to open the room.  i was trying to check out.  they made me late again for a meeting.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>i stayed here twice within a year.  never again.  the first time, the lights failed in the bathroom. they couldn't give me a lamp or anything.  eventually a repair man arrived an hour later, fixed the lights and left parts of the wall all over my things and the sink.  i was trying to get ready to leave,and they made me late as i cleaned up my things and left.  the second time, the door lock failed.  i reported it twice, and their idea was to make me test it with another key.  of course that didn't work, and had to go back to front desk and wait for someone to open the room.  i was trying to check out.  they made me late again for a meeting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r260433865-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>260433865</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Not as nice as I had expected or hoped</t>
+  </si>
+  <si>
+    <t>The staff was nice, room was clean. I expected a bit nicer room and amenities for the price. After looking at the previews on the company site, I did have a vision of a much nicer room and amenities. What we ended up with was ok... but....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>The staff was nice, room was clean. I expected a bit nicer room and amenities for the price. After looking at the previews on the company site, I did have a vision of a much nicer room and amenities. What we ended up with was ok... but....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r260407037-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>260407037</t>
+  </si>
+  <si>
+    <t>Ok I guess. Average sums it up!</t>
+  </si>
+  <si>
+    <t>I have stayed at many "suite" type hotels over the years. This Fairfield is ok. The rooms are pretty much standard hotel rooms w a fridge and microwave. It does not come close to comparing to an embassy suites by Hilton.The hotel staff were kind. Housekeeping will empty your trash and make your bed but that's where it ends. My room was really dusty which doesn't go well w the dry Colorado air. The location is convenient for long business stays. Everything is pretty much In the hotels complex or within a 20 minute drive. Downtown is a bit of a haul. All and all this is really a typical hotel room w a small mini fridge and microwave and it doesn't hold a candle to an embassy suites. But if you're limited in expenses it will suffice.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many "suite" type hotels over the years. This Fairfield is ok. The rooms are pretty much standard hotel rooms w a fridge and microwave. It does not come close to comparing to an embassy suites by Hilton.The hotel staff were kind. Housekeeping will empty your trash and make your bed but that's where it ends. My room was really dusty which doesn't go well w the dry Colorado air. The location is convenient for long business stays. Everything is pretty much In the hotels complex or within a 20 minute drive. Downtown is a bit of a haul. All and all this is really a typical hotel room w a small mini fridge and microwave and it doesn't hold a candle to an embassy suites. But if you're limited in expenses it will suffice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r244062161-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>244062161</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Conveniently Located Fairfield Hotel</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is located just off E-470 and it the edge of a very large shopping center which contains 20+ restaurants. We checked in and when we got to our room, it was not made up yet. We returned to the front desk and were immediately upgraded to a large suite. There was a large screen TV in the living area that must have been 75". It was huge. Our original plan was to stay the night and continue on our cross country journey from Maryland to Nevada the following morning. However, after being on the road for 3 full days and 1,600+ miles, we decided to stay an extra day in our suite. Being the next day was Sunday and we had this huge TV to watch all the NFL games, it was a no brainer. The room was comfortable, quiet and clean. The staff were pleasantl and professional. We found a number of restaurants within walking distance of the hotel and the included breakfast and free Wi-fi was an added plus.This is a good hotel, not "adequate, uninspired or basic" as previously described. It's not a Mandarin Oriental, but it is a good Marriott quality property. You want a property better than "meh", spend the money and stay at a better class of hotels. Don't try to get a room for $79 and then complain its not the Bellagio.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is located just off E-470 and it the edge of a very large shopping center which contains 20+ restaurants. We checked in and when we got to our room, it was not made up yet. We returned to the front desk and were immediately upgraded to a large suite. There was a large screen TV in the living area that must have been 75". It was huge. Our original plan was to stay the night and continue on our cross country journey from Maryland to Nevada the following morning. However, after being on the road for 3 full days and 1,600+ miles, we decided to stay an extra day in our suite. Being the next day was Sunday and we had this huge TV to watch all the NFL games, it was a no brainer. The room was comfortable, quiet and clean. The staff were pleasantl and professional. We found a number of restaurants within walking distance of the hotel and the included breakfast and free Wi-fi was an added plus.This is a good hotel, not "adequate, uninspired or basic" as previously described. It's not a Mandarin Oriental, but it is a good Marriott quality property. You want a property better than "meh", spend the money and stay at a better class of hotels. Don't try to get a room for $79 and then complain its not the Bellagio.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r242526788-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>242526788</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Fairfield Inn, Aurora, CO</t>
+  </si>
+  <si>
+    <t>I love the location of this hotel.  It is right on the edge of an outdoor shopping mall and many excellent places to eat.  The hotel breakfast in the mornings is very good and their staff are always making sure that everything is stocked.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r242482590-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>242482590</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>i am still at the  the hotel  the staff is every good to me because j am looking eor aplace  to stay hear in aurora when the snow came  they was good to me to have a room I would have to sleep in my car with out heat  all the fort desk staff is good personal the kenten lady she good to every body respect everybody , I have seen some of the guest who be hard to the staff but they still give them resepect    was more  can you ask for</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r234215219-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>234215219</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>A Good Stay</t>
+  </si>
+  <si>
+    <t>Stayed here the night before a flight out of DIA. While the hotel is a little hard to get to (you can see it from Smokey Hill Road but you have to go down a couple of side streets) once you get there it's a good experience. Room was clean, towels were plentiful and not worn out. Bed slept well and I wasn't bothered by noise. There were friendly folks behind the desk, both when I checked in and when I checked out. Breakfast was better than the normal "free" breakfast in that it had protein (eggs and turkey Canadian bacon) along with the usual make-it-yourself-waffles, cereal and bagels. All in all a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here the night before a flight out of DIA. While the hotel is a little hard to get to (you can see it from Smokey Hill Road but you have to go down a couple of side streets) once you get there it's a good experience. Room was clean, towels were plentiful and not worn out. Bed slept well and I wasn't bothered by noise. There were friendly folks behind the desk, both when I checked in and when I checked out. Breakfast was better than the normal "free" breakfast in that it had protein (eggs and turkey Canadian bacon) along with the usual make-it-yourself-waffles, cereal and bagels. All in all a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r229945481-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>229945481</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>En route from late DIA arrival to Colo Sprgs we picked this hotel for it's location on 470 and we weren't disappointed.  For this type of chain it was all very new and well-maintained and appointed.  Especially liked the extremely spacious non-suite king room (think 2 rm suite w/o the dividing wall); you could fit 2 kings in this room so it would be great for a family with cribs and other "stuff", or business person on a longer stay could workout in the room, or just sprawl out a bit. Spacious upscale looking bathroom, too. Bed, pillows and linens pretty lush as well for this type of lodging. We didn't have time to use the public spaces incl pool/fitness, but all appeared in keeping with the overall fit and finish of the hotel.  We were on the top floor on a weeknight, so it was very quiet and we noticed no noise from outside whatsoever.
+Property is part of big shopping/entertainment complex off 470, which seems to exist in a vacuum of nothing else anywhere nearby (as is most of the 470 environs.)  Almost anything you'd want for shops and eats/drinks are there; however, they roll up the sidewalks almost as soon as the shops close, so we could find nothing open and it wasn't even 10 yet. If you're looking for nightlife, you'd be out of luck here.
+We were briefly optimistic on finding a microwave in the...En route from late DIA arrival to Colo Sprgs we picked this hotel for it's location on 470 and we weren't disappointed.  For this type of chain it was all very new and well-maintained and appointed.  Especially liked the extremely spacious non-suite king room (think 2 rm suite w/o the dividing wall); you could fit 2 kings in this room so it would be great for a family with cribs and other "stuff", or business person on a longer stay could workout in the room, or just sprawl out a bit. Spacious upscale looking bathroom, too. Bed, pillows and linens pretty lush as well for this type of lodging. We didn't have time to use the public spaces incl pool/fitness, but all appeared in keeping with the overall fit and finish of the hotel.  We were on the top floor on a weeknight, so it was very quiet and we noticed no noise from outside whatsoever.Property is part of big shopping/entertainment complex off 470, which seems to exist in a vacuum of nothing else anywhere nearby (as is most of the 470 environs.)  Almost anything you'd want for shops and eats/drinks are there; however, they roll up the sidewalks almost as soon as the shops close, so we could find nothing open and it wasn't even 10 yet. If you're looking for nightlife, you'd be out of luck here.We were briefly optimistic on finding a microwave in the room, but no popcorn or other real food was available in room, at front desk or in vending.  After going to bed hungry we skipped the standard fare "continental brkfst" and hit the Village Inn right next door for something hot and substantial.MoreShow less</t>
+  </si>
+  <si>
+    <t>En route from late DIA arrival to Colo Sprgs we picked this hotel for it's location on 470 and we weren't disappointed.  For this type of chain it was all very new and well-maintained and appointed.  Especially liked the extremely spacious non-suite king room (think 2 rm suite w/o the dividing wall); you could fit 2 kings in this room so it would be great for a family with cribs and other "stuff", or business person on a longer stay could workout in the room, or just sprawl out a bit. Spacious upscale looking bathroom, too. Bed, pillows and linens pretty lush as well for this type of lodging. We didn't have time to use the public spaces incl pool/fitness, but all appeared in keeping with the overall fit and finish of the hotel.  We were on the top floor on a weeknight, so it was very quiet and we noticed no noise from outside whatsoever.
+Property is part of big shopping/entertainment complex off 470, which seems to exist in a vacuum of nothing else anywhere nearby (as is most of the 470 environs.)  Almost anything you'd want for shops and eats/drinks are there; however, they roll up the sidewalks almost as soon as the shops close, so we could find nothing open and it wasn't even 10 yet. If you're looking for nightlife, you'd be out of luck here.
+We were briefly optimistic on finding a microwave in the...En route from late DIA arrival to Colo Sprgs we picked this hotel for it's location on 470 and we weren't disappointed.  For this type of chain it was all very new and well-maintained and appointed.  Especially liked the extremely spacious non-suite king room (think 2 rm suite w/o the dividing wall); you could fit 2 kings in this room so it would be great for a family with cribs and other "stuff", or business person on a longer stay could workout in the room, or just sprawl out a bit. Spacious upscale looking bathroom, too. Bed, pillows and linens pretty lush as well for this type of lodging. We didn't have time to use the public spaces incl pool/fitness, but all appeared in keeping with the overall fit and finish of the hotel.  We were on the top floor on a weeknight, so it was very quiet and we noticed no noise from outside whatsoever.Property is part of big shopping/entertainment complex off 470, which seems to exist in a vacuum of nothing else anywhere nearby (as is most of the 470 environs.)  Almost anything you'd want for shops and eats/drinks are there; however, they roll up the sidewalks almost as soon as the shops close, so we could find nothing open and it wasn't even 10 yet. If you're looking for nightlife, you'd be out of luck here.We were briefly optimistic on finding a microwave in the room, but no popcorn or other real food was available in room, at front desk or in vending.  After going to bed hungry we skipped the standard fare "continental brkfst" and hit the Village Inn right next door for something hot and substantial.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r225165045-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>225165045</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Pretty standard hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average hotel. Walls are so thin I had to move rooms bc the neighboring room's tv was on. But staff was nice about the request. Looked clean. Bed was comfortable.  Really no complaints other than walls being so thin. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r215991590-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>215991590</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Possibly the best hotel I've ever stayed in</t>
+  </si>
+  <si>
+    <t>OK, maybe not as nice as the hotel in Hawaii, but easily the best hotel I've stayed in, in the past year.  Very clean, very comfortable (bed, towels), everything worked as it should, and the front desk staff was very friendly.  It seemed like this hotel was of a higher class than is typical of the Fairfield brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>OK, maybe not as nice as the hotel in Hawaii, but easily the best hotel I've stayed in, in the past year.  Very clean, very comfortable (bed, towels), everything worked as it should, and the front desk staff was very friendly.  It seemed like this hotel was of a higher class than is typical of the Fairfield brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r215895592-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>215895592</t>
+  </si>
+  <si>
+    <t>Acceptable with a few downsides</t>
+  </si>
+  <si>
+    <t>Pros: new property, clean, near shopping, 20-30 minutes from airport, price is reasonableNeutral: staff, breakfast, poolCons: beds are uncomfortable, rooms are very dry, the heat/AC system has the loudest and most disturbing fan I have experienced in any hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>DENASMANAGEMENT, Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded July 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2014</t>
+  </si>
+  <si>
+    <t>Pros: new property, clean, near shopping, 20-30 minutes from airport, price is reasonableNeutral: staff, breakfast, poolCons: beds are uncomfortable, rooms are very dry, the heat/AC system has the loudest and most disturbing fan I have experienced in any hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r214892145-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>214892145</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Close to DIA</t>
+  </si>
+  <si>
+    <t>Hotel was clean &amp; relaxing.  Lives up to Marriott expectations.  Also, very convenient for dining, shopping, and DIA.  Great rates for the area.  I will definitely stay here again when needing to fly out of Denver.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r206357457-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>206357457</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night, 3 adults. The beds were not too soft, nor too hard. The pillow's were too soft, you just sank right into them. The room was nice &amp; clean. We had the A/C on and no smells came from the A/C. The check in staff were very nice. The breakfast staff when talking to each other were rude, but, when talking to the guests they were nice. The free breakfast had eggs, waffles, &amp; sausage, but, for a Saturday I would have thought they may have tried to put more of a food selection out there. I could hear noise coming from the hallway or parking lot, not sure which throughout the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night, 3 adults. The beds were not too soft, nor too hard. The pillow's were too soft, you just sank right into them. The room was nice &amp; clean. We had the A/C on and no smells came from the A/C. The check in staff were very nice. The breakfast staff when talking to each other were rude, but, when talking to the guests they were nice. The free breakfast had eggs, waffles, &amp; sausage, but, for a Saturday I would have thought they may have tried to put more of a food selection out there. I could hear noise coming from the hallway or parking lot, not sure which throughout the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r205455768-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>205455768</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent front desk and rooms</t>
+  </si>
+  <si>
+    <t>My family loved the Fairfield Inn and Suites Aurora. The front desk was very friendly and helpful. We loved the nice quiet room and free breakfast. My kids loved their pool and the whole staff was lovely. Our next trip to Aurora in August we well return and ask for the same room. The location was great right off the highway. I honestly can't say one bad thing about this hotel.. It is newer with good management and staff</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r203789385-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>203789385</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Clean comfortable. Great location</t>
+  </si>
+  <si>
+    <t>Booked this hotel on Priceline at a GREAT price.  Staff was great.  The hotel was immaculate and the beds were very comfortable.  The breakfast had a few hot items plus the usuals of cereals, pastries and such which was a nice start to the day - for free.  The location was super for us.  It wasn't far off the highway and was in walking distance to an entire shopping area with restaurants, movie theaters and even a Walmart if you needed it.  We would definitely stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r193010610-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>193010610</t>
+  </si>
+  <si>
+    <t>02/03/2014</t>
+  </si>
+  <si>
+    <t>Excellent 4 Night Stay!</t>
+  </si>
+  <si>
+    <t>I recently spent 4 nights here while in Aurora for business. My room was excellent - comfy bed, nice bathroom and clean!!  Numerous shopping and dining options are within walking distance.  Great hotel!</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r188720438-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>188720438</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Great staff, clean modern rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here last Friday for my nieces 16th birthday. The staff could not have been better. The hotel is located on the grounds of Southlands Mall. The rooms and public space were spotless. The only thing that surprised me was that the room tv remote batteries were dead. As a note I found the breakfast room was well set and the food was very good. If your coming to Aurora on business in the area and like a place with many restaurants and things to walk to this is for you. Also, the suites are VERY spacious and have jacuzzi tubs. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r188328728-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>188328728</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Stayed for just one night.  Hotel staff were amazing.  Even when we checked in at midnight they had a smile on their faceFree breakfast in the morning was a nice peek as well!There was a pool we just didn't have time to use it.   Rooms were a decent size and decent furniture.   It did smell a bit musty though!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r185747179-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>185747179</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Nice find off of Tollroad</t>
+  </si>
+  <si>
+    <t>Easy access from highway.  Located by nice shopping and dining.  Nice exterior and interior.  Breakfast was well supplied by friendly staff.  Room was nice with comfortable beds.  Would stay here again.  The pool and hot tub looked nice but we did not have time to test out.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r185504182-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>185504182</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>We were in Aurora for a funeral/family gathering. This property was so conveniently located, right off the toll road that goes directly to the airport.  There are many options for eating nearby and shopping as well.  At arrival we were checked in easily. The room was nicely appointed and clean.  We had a problem regulating the heat so finally opened the window a crack to cool it off. When I asked about it the problem was taken care of to our satisfaction.The shining star of this hotel is Kate, the breakfast hostess.  A delighful, gracious woman doing her job with a smile, no matter what.  On the first morning there I observed a the massive family with 13 kids (They made sure everyone in the area knew they had 13 kids) as they made a total disaster of the 3 large table they used.  The tables, the floors, the chairs...all a mess.  when they left I watched Kate go out and clean it all up, with a smile on her face, never complaining.  AND....ey had not even left a tip for her.Kate deserves recognition.  the rest of the stay was about average for a Fairfield propertyMoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Aurora for a funeral/family gathering. This property was so conveniently located, right off the toll road that goes directly to the airport.  There are many options for eating nearby and shopping as well.  At arrival we were checked in easily. The room was nicely appointed and clean.  We had a problem regulating the heat so finally opened the window a crack to cool it off. When I asked about it the problem was taken care of to our satisfaction.The shining star of this hotel is Kate, the breakfast hostess.  A delighful, gracious woman doing her job with a smile, no matter what.  On the first morning there I observed a the massive family with 13 kids (They made sure everyone in the area knew they had 13 kids) as they made a total disaster of the 3 large table they used.  The tables, the floors, the chairs...all a mess.  when they left I watched Kate go out and clean it all up, with a smile on her face, never complaining.  AND....ey had not even left a tip for her.Kate deserves recognition.  the rest of the stay was about average for a Fairfield propertyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r182100210-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>182100210</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Has great potential - needs better management</t>
+  </si>
+  <si>
+    <t>This hotel could easily be a five.  New, clean, comfortable beds, and good house keeping.  The biggest problem we found during our four-night stay was the slow response to known problems.  After a long day of flying, we were looking forward to relaxing in the hot tub......nope, broken and not repaired until third day (unknown as to how long it had been out of service).  None of the digital TV channels worked.....informed at check in, and blame was placed on Direct TV.  This was not repaired until the fourth day.  Other guests (who had been at the hotel prior to our arrival) were complaining that there had been no hot water for three days (I think that I would have found another hotel after the first day).  We were very happy with housekeeping until the last day.  As another reviewer posted, we were in the process of preparing for an 11:00 checkout, when the maid knocked on the door and opened it a split second later without waiting for a response.  I have mixed feelings about staying at this hotel again.....would probably give it one more chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This hotel could easily be a five.  New, clean, comfortable beds, and good house keeping.  The biggest problem we found during our four-night stay was the slow response to known problems.  After a long day of flying, we were looking forward to relaxing in the hot tub......nope, broken and not repaired until third day (unknown as to how long it had been out of service).  None of the digital TV channels worked.....informed at check in, and blame was placed on Direct TV.  This was not repaired until the fourth day.  Other guests (who had been at the hotel prior to our arrival) were complaining that there had been no hot water for three days (I think that I would have found another hotel after the first day).  We were very happy with housekeeping until the last day.  As another reviewer posted, we were in the process of preparing for an 11:00 checkout, when the maid knocked on the door and opened it a split second later without waiting for a response.  I have mixed feelings about staying at this hotel again.....would probably give it one more chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r179847221-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>179847221</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Life Savers</t>
+  </si>
+  <si>
+    <t>My wife and I were actually walk in reservations. Which I think is the first time we've ever done that.Long story short the other hotel we were booked at was somewhat  reminiscent of a mix between my college dorm room and jail cell.  I have no comment on how I know that. But the team at Fairfield knocked it out of the park. They were pleasant and courteous at all hours and all shifts. The room was spacious and at the price they gave us we had zero complaints. If we ever found ourselves in need of a place to stay again in the area, this Fairfield would be our first stop. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My wife and I were actually walk in reservations. Which I think is the first time we've ever done that.Long story short the other hotel we were booked at was somewhat  reminiscent of a mix between my college dorm room and jail cell.  I have no comment on how I know that. But the team at Fairfield knocked it out of the park. They were pleasant and courteous at all hours and all shifts. The room was spacious and at the price they gave us we had zero complaints. If we ever found ourselves in need of a place to stay again in the area, this Fairfield would be our first stop. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r175764937-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>175764937</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Overall fine experience with a few glitches.</t>
+  </si>
+  <si>
+    <t>The Fairfield Southlands is relatively new, so they get some consideration for that. We stayed here because it was closest to people we were visiting and the price was fair.  I purchased a promotional offer that included breakfast across the street at the Village Inn, as breakfast was not currently offered at the hotel.  However, upon arrival, there was a big sign about "our NEW complimentary breakfast buffet."  Village Inn was fine, so I'm really not complaining, but it did end up as a bump up in price.  Having said that, our 2 night stay was fine, but on the morning of checking out the entire building lost its TV and internet connection, as well as a plumbing issue that cut off all water.  I tried to make an additional reservation for the following weekend, but with the internet service out, they said there was nothing they could do about it.  I do believe they stil had telephone, although I am not sure.  If so, couldn't the desk clerk have made a phone call with regard to a reservation?  Just asking.  I probably would stay here again if my travel brought me back.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The Fairfield Southlands is relatively new, so they get some consideration for that. We stayed here because it was closest to people we were visiting and the price was fair.  I purchased a promotional offer that included breakfast across the street at the Village Inn, as breakfast was not currently offered at the hotel.  However, upon arrival, there was a big sign about "our NEW complimentary breakfast buffet."  Village Inn was fine, so I'm really not complaining, but it did end up as a bump up in price.  Having said that, our 2 night stay was fine, but on the morning of checking out the entire building lost its TV and internet connection, as well as a plumbing issue that cut off all water.  I tried to make an additional reservation for the following weekend, but with the internet service out, they said there was nothing they could do about it.  I do believe they stil had telephone, although I am not sure.  If so, couldn't the desk clerk have made a phone call with regard to a reservation?  Just asking.  I probably would stay here again if my travel brought me back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r175636613-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>175636613</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Excellent hotel for groups, family reunions, etc.</t>
+  </si>
+  <si>
+    <t>Rooms were modern and clean, great location with lots of restaurants and shopping, and breakfast was excellent.  Lots of variety of breakfast foods, both hot and cold.   Eating area was exceptionally large and accommodated our family and wedding party quite well.  Desk staff was average.  One young man gave stellar service; the rest didn't acknowledge our presence at all.  Nor did they try to ask several EXTREMELY noisy groups to quiet down even though it was long past midnight. One guest party was so wild and drunk they had to leave in an ambulance.  Yet the desk clerk didn't even seem to notice or think it out of the ordinary.  Two elevators accessing the four floors were more than adequate for the number of guests, and pool was nice. Convenient location right off of major highway.  Would stay here again, but would be more assertive in asking the desk staff to manage noisy situations more effectively.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Rooms were modern and clean, great location with lots of restaurants and shopping, and breakfast was excellent.  Lots of variety of breakfast foods, both hot and cold.   Eating area was exceptionally large and accommodated our family and wedding party quite well.  Desk staff was average.  One young man gave stellar service; the rest didn't acknowledge our presence at all.  Nor did they try to ask several EXTREMELY noisy groups to quiet down even though it was long past midnight. One guest party was so wild and drunk they had to leave in an ambulance.  Yet the desk clerk didn't even seem to notice or think it out of the ordinary.  Two elevators accessing the four floors were more than adequate for the number of guests, and pool was nice. Convenient location right off of major highway.  Would stay here again, but would be more assertive in asking the desk staff to manage noisy situations more effectively.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r168704783-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>168704783</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>comfortable stay</t>
+  </si>
+  <si>
+    <t>My daughter and i first stayed here about 3 weeks ago.  We were in town to attend a funeral.  We enjoyed the location as it was close to shopping and the movies. My family returned over the past weekend to visit family.  Positives...internet worked very well...office center convenient...staff always friendly...bed comfortable and rooms tastefully decorated.  workout room was just ok...two treadmills (one was out of order) and one elliptical...so minimal facility.  breakfast was your typical...bland eggs...but a big variety of food (and again it was included) and always keeping things full...again staff very friendly.  We never had time for the pool and hottub as they close at 10 (sad face).  Overall we had a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter and i first stayed here about 3 weeks ago.  We were in town to attend a funeral.  We enjoyed the location as it was close to shopping and the movies. My family returned over the past weekend to visit family.  Positives...internet worked very well...office center convenient...staff always friendly...bed comfortable and rooms tastefully decorated.  workout room was just ok...two treadmills (one was out of order) and one elliptical...so minimal facility.  breakfast was your typical...bland eggs...but a big variety of food (and again it was included) and always keeping things full...again staff very friendly.  We never had time for the pool and hottub as they close at 10 (sad face).  Overall we had a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r166217706-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>166217706</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>"Enjoyable Stay"</t>
+  </si>
+  <si>
+    <t>The Nebraska Family............This hotel experience was an enjoyable stay.  It was easy directions for arrival, and accesible to all of our travel desitnations.  The front-desk host was very helpful and a pleasant young man.  I especially liked the hotel's location, within walking distance of shopping and dining.  I would stay again at this location, and reccommend it to others.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r165979767-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>165979767</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>NICE NEW HOTEL</t>
+  </si>
+  <si>
+    <t>We don't often stay at a Fairfield Inn &amp; Suites.  However, we were attending a wedding and the hosts arranged the hotel.I was impressed with the new hotel.  Rooms were large and well decorated.  The bed was very comfortable and the room was quiet.The nightly rate was outstanding.Breakfast was better on the weekend, but was very good overall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r159653417-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>159653417</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Good hotel choice in area</t>
+  </si>
+  <si>
+    <t>Hotel is very basic but functional.  Location provides a decent number of food options within walking distance in a fairly deserted mall.  Air Conditioner can be a bit noisy and I miss the common spaces but for a basic hotel, provides good value.Room:  Clean + functional for a basic hotel.  I do prefer the higher end Marriott hotels though as they have better beds and better amenities.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r159292183-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>159292183</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>One stop over</t>
+  </si>
+  <si>
+    <t>Good value - comfortable room everything you would need. coffee making facilities, iPod dock, your room had two tv's - one in bed area and in lounge. Good quality shower gel etc. smal  pool and small gym but adequate for short stay. Self service breakfast had good coffee and hot &amp; cold options.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r159092047-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>159092047</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Exceptional Hotel Service and Beautiful Hotel = GREAT</t>
+  </si>
+  <si>
+    <t>We arrived here after a very long drive tonight and found that the online booking agents had reserved our room for the wrong night. I was totally discouraged and tired beyond my limit, but Evy, the woman who was checking us in was so kind and accomodating. I could not have felt more relieved and this was because of the way she treated us/me like a welcomed guest, preparing a room and getting us settled in. When a hotel has this type of service-oriented associate making these kinds of connections with guests, the hotel can command loyalty from its guests. Clearly this hotel checks off all the boxes for me, impeccably clean, modern rooms, great decor, breakfast and lobby ammenities, proximity to extensive eateries and upscale shopping areas, but in the end, it is really the service , the professionalism that is provided at that very first encounter, from employees like Evy, who will ensure that I will be back to stay again. Great job to the management of this hotel for doing it right. Thank you for making it a great stay, if even just for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived here after a very long drive tonight and found that the online booking agents had reserved our room for the wrong night. I was totally discouraged and tired beyond my limit, but Evy, the woman who was checking us in was so kind and accomodating. I could not have felt more relieved and this was because of the way she treated us/me like a welcomed guest, preparing a room and getting us settled in. When a hotel has this type of service-oriented associate making these kinds of connections with guests, the hotel can command loyalty from its guests. Clearly this hotel checks off all the boxes for me, impeccably clean, modern rooms, great decor, breakfast and lobby ammenities, proximity to extensive eateries and upscale shopping areas, but in the end, it is really the service , the professionalism that is provided at that very first encounter, from employees like Evy, who will ensure that I will be back to stay again. Great job to the management of this hotel for doing it right. Thank you for making it a great stay, if even just for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r156938852-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>156938852</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>lean, Quiet, Friendly, Nice near Southlands Mall 1/2mi from E470 freeway</t>
+  </si>
+  <si>
+    <t>Our stay was for 3 days and we had no complaints. We used to live 2 miles from this mall and it is very safe where this hotel is located in South Aurora. Upscale area. Convenient to the freeway E 470 which is a toll road. Cost about $20.00 to get to the airport. Lots of places to eat. Village Inn right next door for breakfast. They have a continental breakfast that is very basic... Yogurt, bagels, cereal, fruit. Gas station 1 block away. Staff is friendly. Room was very clean. The Mall is great...summer has water for kids to play in and winter has ice rink, horse and carriage rides, carolers and a fire pit area to sit and keep warm. Mall is outside. Summer Mall has Farmers Market. When in Colorado a must see is Estes Park, Casinos in Central City, Manitou Springs, Grand Lake, Pikes Peak, Aspen ski resort. These places are all within a few hours from Aurora where this hotel is located. Other ideas...Steam Boat Springs and Glenwood Springs a little farther away.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Our stay was for 3 days and we had no complaints. We used to live 2 miles from this mall and it is very safe where this hotel is located in South Aurora. Upscale area. Convenient to the freeway E 470 which is a toll road. Cost about $20.00 to get to the airport. Lots of places to eat. Village Inn right next door for breakfast. They have a continental breakfast that is very basic... Yogurt, bagels, cereal, fruit. Gas station 1 block away. Staff is friendly. Room was very clean. The Mall is great...summer has water for kids to play in and winter has ice rink, horse and carriage rides, carolers and a fire pit area to sit and keep warm. Mall is outside. Summer Mall has Farmers Market. When in Colorado a must see is Estes Park, Casinos in Central City, Manitou Springs, Grand Lake, Pikes Peak, Aspen ski resort. These places are all within a few hours from Aurora where this hotel is located. Other ideas...Steam Boat Springs and Glenwood Springs a little farther away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r154414050-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>154414050</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Nice room, near elevator as requested online.  Extra towels and foam pillows waiting in my room as requested.  Staff even takes time to fold towel into cute shirt and tie configuration on the bathroom counter. Made me smile at end of stressful day.  Delightful front desk lady. I'll be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r152824552-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>152824552</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Clean.  Comfortable.  Friendly Staff.  Good neighborhood.  Would stay again and again!  Very impressed.</t>
+  </si>
+  <si>
+    <t>After having a terrible travel day (flights delayed, getting in late, not being able to drive home 5 hours because of snow storm) found this hotel, didn't look around because was so exhausted would have stayed anywhere!  But we were blessed to find such as wonderful hotel!  The lady at the check in counter was AMAZING!  She could tell we were exhausted and was so friendly and was really honestly concerned about our happiness.  We stayed in a room with a whirlpool and it was so comfortable...closest feeling of home any hotel has ever given me.  The room was VERY clean, my husband and I are very picky travelers and we were very impressed!  The towels also smelled very good and were very soft, softest hotel towels I ever felt.  Free Wi-Fi was great!  The breakfast the next morning was great too.  Plenty of options for hot and cold breakfast and plenty of beverages, the coffee was good too!  If I were to complain about anything it would be the shower did leak a little bit onto the bathroom floor and the next morning I could hear other guests talking in the hallway (although was not loud and would not have prevented me from sleeping).  In short I would stay here everytime I travel to Denver or have to fly out of DIA.  We came from the airport and we think it took maybe 30 minutes but was nice to...After having a terrible travel day (flights delayed, getting in late, not being able to drive home 5 hours because of snow storm) found this hotel, didn't look around because was so exhausted would have stayed anywhere!  But we were blessed to find such as wonderful hotel!  The lady at the check in counter was AMAZING!  She could tell we were exhausted and was so friendly and was really honestly concerned about our happiness.  We stayed in a room with a whirlpool and it was so comfortable...closest feeling of home any hotel has ever given me.  The room was VERY clean, my husband and I are very picky travelers and we were very impressed!  The towels also smelled very good and were very soft, softest hotel towels I ever felt.  Free Wi-Fi was great!  The breakfast the next morning was great too.  Plenty of options for hot and cold breakfast and plenty of beverages, the coffee was good too!  If I were to complain about anything it would be the shower did leak a little bit onto the bathroom floor and the next morning I could hear other guests talking in the hallway (although was not loud and would not have prevented me from sleeping).  In short I would stay here everytime I travel to Denver or have to fly out of DIA.  We came from the airport and we think it took maybe 30 minutes but was nice to be away from all the craziness of the airport.  We are VERY picky travelers, I can find anything about a hotel and dislike it and found this stay to be very enjoyable.  WILL RECOMMEND THIS HOTEL TO ANYONE!  This hotel turned the whole day around for my husband and I and allowed us to be happy with each other once again after a terrible travel day, which I will cherish the most.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>After having a terrible travel day (flights delayed, getting in late, not being able to drive home 5 hours because of snow storm) found this hotel, didn't look around because was so exhausted would have stayed anywhere!  But we were blessed to find such as wonderful hotel!  The lady at the check in counter was AMAZING!  She could tell we were exhausted and was so friendly and was really honestly concerned about our happiness.  We stayed in a room with a whirlpool and it was so comfortable...closest feeling of home any hotel has ever given me.  The room was VERY clean, my husband and I are very picky travelers and we were very impressed!  The towels also smelled very good and were very soft, softest hotel towels I ever felt.  Free Wi-Fi was great!  The breakfast the next morning was great too.  Plenty of options for hot and cold breakfast and plenty of beverages, the coffee was good too!  If I were to complain about anything it would be the shower did leak a little bit onto the bathroom floor and the next morning I could hear other guests talking in the hallway (although was not loud and would not have prevented me from sleeping).  In short I would stay here everytime I travel to Denver or have to fly out of DIA.  We came from the airport and we think it took maybe 30 minutes but was nice to...After having a terrible travel day (flights delayed, getting in late, not being able to drive home 5 hours because of snow storm) found this hotel, didn't look around because was so exhausted would have stayed anywhere!  But we were blessed to find such as wonderful hotel!  The lady at the check in counter was AMAZING!  She could tell we were exhausted and was so friendly and was really honestly concerned about our happiness.  We stayed in a room with a whirlpool and it was so comfortable...closest feeling of home any hotel has ever given me.  The room was VERY clean, my husband and I are very picky travelers and we were very impressed!  The towels also smelled very good and were very soft, softest hotel towels I ever felt.  Free Wi-Fi was great!  The breakfast the next morning was great too.  Plenty of options for hot and cold breakfast and plenty of beverages, the coffee was good too!  If I were to complain about anything it would be the shower did leak a little bit onto the bathroom floor and the next morning I could hear other guests talking in the hallway (although was not loud and would not have prevented me from sleeping).  In short I would stay here everytime I travel to Denver or have to fly out of DIA.  We came from the airport and we think it took maybe 30 minutes but was nice to be away from all the craziness of the airport.  We are VERY picky travelers, I can find anything about a hotel and dislike it and found this stay to be very enjoyable.  WILL RECOMMEND THIS HOTEL TO ANYONE!  This hotel turned the whole day around for my husband and I and allowed us to be happy with each other once again after a terrible travel day, which I will cherish the most.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r148750317-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>148750317</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>Beware of their late breakfast start for weekends</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night as to be closer to the airport for an early flight out of Denver. I was surprise that breakfast starts only at 7 on weekend. The rooms were clean and nice but there was no kettle in teh room to make coffee. I had to call teh receptionist and tehy said I could get one from the reception. I didn't bother.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r142891930-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>142891930</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Terrible customer service by Manager, Lane</t>
+  </si>
+  <si>
+    <t>I contacted the hotel to determine when I would need to cancel to not be charged.  I was advised by 6pm on the day of check in.  I ended up cancelling by that time and was provided with a cancellation number.  My credit card was still charged!  When I called to resolve the issue, Lane advised that he could not help me.  I asked to speak to his manager and he refused.  I asked how he was going to resolve the issue, he refused to answer my question.  He ended up hanging up on me.  Extremely RUDE!  I will not stay at this hotel again.  Despite the nice accomodations, customer service is still the most important aspect of any product or service.  I'm very disappointed in the way he handled my concern.  I was proviced incorrect information twice and there was no concern for that.  Needless to say, I will be submitting a formal complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>General M, Director of Sales at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded December 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2012</t>
+  </si>
+  <si>
+    <t>I contacted the hotel to determine when I would need to cancel to not be charged.  I was advised by 6pm on the day of check in.  I ended up cancelling by that time and was provided with a cancellation number.  My credit card was still charged!  When I called to resolve the issue, Lane advised that he could not help me.  I asked to speak to his manager and he refused.  I asked how he was going to resolve the issue, he refused to answer my question.  He ended up hanging up on me.  Extremely RUDE!  I will not stay at this hotel again.  Despite the nice accomodations, customer service is still the most important aspect of any product or service.  I'm very disappointed in the way he handled my concern.  I was proviced incorrect information twice and there was no concern for that.  Needless to say, I will be submitting a formal complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r142032899-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>142032899</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Great service, great location!</t>
+  </si>
+  <si>
+    <t>My mother and I, along with a family friend, stayed here sight unseen based on a conference recommendation. It was a last minute decision and the staff, especially Angela, went above and beyond to fit us in! They were all very helpful and professionally personable. I would definitely recommend this particular location for the exceptional staff as well as its location which is super convenient. We know where to stay next time we're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2012</t>
+  </si>
+  <si>
+    <t>My mother and I, along with a family friend, stayed here sight unseen based on a conference recommendation. It was a last minute decision and the staff, especially Angela, went above and beyond to fit us in! They were all very helpful and professionally personable. I would definitely recommend this particular location for the exceptional staff as well as its location which is super convenient. We know where to stay next time we're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r140002296-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>140002296</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Great location nice hotel</t>
+  </si>
+  <si>
+    <t>I stayed here during a recent trip to Denver for a triathlon. The location could not have been better - about ten minutes from the race and right in the middle of a huge shopping center. There were tons of restaurants and places to shop. It was very well lit and I felt really safe being alone. The staff were super friendly and the hotel was clean and new. I was in a king room on the 4th floor that had a living area and separate room with the bed. There was a spa tub in the bathroom - which was fabulous! A few minor complaints might be that there was no environmental program at the hotel - I couldn't find a place to recycle, there were plastic glasses rather than glass, etc. Also, there was a mini-fridge, microwave and sink and it would have been nice to have a small bottle of dishsoap or such. It was a great place to stay for a quick weekend trip. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here during a recent trip to Denver for a triathlon. The location could not have been better - about ten minutes from the race and right in the middle of a huge shopping center. There were tons of restaurants and places to shop. It was very well lit and I felt really safe being alone. The staff were super friendly and the hotel was clean and new. I was in a king room on the 4th floor that had a living area and separate room with the bed. There was a spa tub in the bathroom - which was fabulous! A few minor complaints might be that there was no environmental program at the hotel - I couldn't find a place to recycle, there were plastic glasses rather than glass, etc. Also, there was a mini-fridge, microwave and sink and it would have been nice to have a small bottle of dishsoap or such. It was a great place to stay for a quick weekend trip. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r139184152-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139184152</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>A great place to stay in a great location.</t>
+  </si>
+  <si>
+    <t>We stayed here Labor Day weekend for a wedding.  Aurora is about 20 minutes away from Denver International Airport.  The hotel is conveniently located In the middle of a great shopping area.  We walked over to P.F. Changs for drinks one evening and walked to a Noodle type restaurant for lunch.  There are plenty of sit down restaurants and fast food places in walking distance from the hotel.  The room was very clean and spacious.  Wifi was decent.  The breakfast was your typical hotel breakfast.  The front desk was very helpful.  Our only complaint about the hotel is that it did not have a bar but there are many bars in walking distance.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here Labor Day weekend for a wedding.  Aurora is about 20 minutes away from Denver International Airport.  The hotel is conveniently located In the middle of a great shopping area.  We walked over to P.F. Changs for drinks one evening and walked to a Noodle type restaurant for lunch.  There are plenty of sit down restaurants and fast food places in walking distance from the hotel.  The room was very clean and spacious.  Wifi was decent.  The breakfast was your typical hotel breakfast.  The front desk was very helpful.  Our only complaint about the hotel is that it did not have a bar but there are many bars in walking distance.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r139116038-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139116038</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This is one of the cleanest hotels I have ever stayed in.  Such a relief to not have to worry about whether the room is clean or not.  All of the bed lines are changed daily, even the comforters.  The rooms were spotless, not even dust bunnies in the corners!  The staff was all very friendly and attentive.  The breakfast was very good, and the staff was very willing to help with any questions we had.  I would recommend this hotel to anyone looking for a good value and clean rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This is one of the cleanest hotels I have ever stayed in.  Such a relief to not have to worry about whether the room is clean or not.  All of the bed lines are changed daily, even the comforters.  The rooms were spotless, not even dust bunnies in the corners!  The staff was all very friendly and attentive.  The breakfast was very good, and the staff was very willing to help with any questions we had.  I would recommend this hotel to anyone looking for a good value and clean rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r135808928-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>135808928</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Awesome!!</t>
+  </si>
+  <si>
+    <t>What a lovely hotel!!  This hotel is new, clean, bright and cheery.  We had a great stay!  The staff is friendly.  The breakfast was good, usual hotel type breakfast.  Our room was super clean.  We had a king suite. The king bed was in a room with doors that close off from the main living area.  The bed was very comfortable and the pillows were just right.  The room was huge.  The sofa bed was good according to the kids.  Even with the sofa bed "out" there was still plenty of room to walk around the bed to the other area of the room.  Overall a GREAT stay. We will most certainly stay here again.  Thanks Fairfield Inns!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>What a lovely hotel!!  This hotel is new, clean, bright and cheery.  We had a great stay!  The staff is friendly.  The breakfast was good, usual hotel type breakfast.  Our room was super clean.  We had a king suite. The king bed was in a room with doors that close off from the main living area.  The bed was very comfortable and the pillows were just right.  The room was huge.  The sofa bed was good according to the kids.  Even with the sofa bed "out" there was still plenty of room to walk around the bed to the other area of the room.  Overall a GREAT stay. We will most certainly stay here again.  Thanks Fairfield Inns!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r135446973-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>135446973</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Basic but nice and clean, would stay again.</t>
+  </si>
+  <si>
+    <t>We were visiting family in the area and just looked for  decent hotel in the area, but not tooo cheap.   Found this one and it filled our needs.   Very clean, and has a pool, jacuzzi and free morning breakfast.  Breakfast is not made to order (like Embassy) but above average and the ladies working it are attentive.    Price was lower than others closer to Denver or at airport.   It doesn't have a restaurant but there is one next door that I think is 24 hours.  there is also a Huge shopping center right by it, with any store you could want and numerous restaurants.  
+Basic room was nice.  I tried to upgrade but they were booked.   My sister and I shared the room and it worked out OK.  Comfy beds, good water pressure and clean.   For being a booked hotel our room was very quiet.   Hardly even heard street noise even though our window faced Toll road, course we did have our AC on at all times so that may have helped drown it out.   We had a even number room with a view  of sound wall.   Maybe odd number rooms look out over shopping center which would have been an improvement.
+My only complaints.....Upon arrival I looked all over for the stand of flyers you always find at hotels telling you whats in the area but couldn't find any. On our last day my sister looked in the cupboards...We were visiting family in the area and just looked for  decent hotel in the area, but not tooo cheap.   Found this one and it filled our needs.   Very clean, and has a pool, jacuzzi and free morning breakfast.  Breakfast is not made to order (like Embassy) but above average and the ladies working it are attentive.    Price was lower than others closer to Denver or at airport.   It doesn't have a restaurant but there is one next door that I think is 24 hours.  there is also a Huge shopping center right by it, with any store you could want and numerous restaurants.  Basic room was nice.  I tried to upgrade but they were booked.   My sister and I shared the room and it worked out OK.  Comfy beds, good water pressure and clean.   For being a booked hotel our room was very quiet.   Hardly even heard street noise even though our window faced Toll road, course we did have our AC on at all times so that may have helped drown it out.   We had a even number room with a view  of sound wall.   Maybe odd number rooms look out over shopping center which would have been an improvement.My only complaints.....Upon arrival I looked all over for the stand of flyers you always find at hotels telling you whats in the area but couldn't find any. On our last day my sister looked in the cupboards of the business center (just a couple of computers and a printer near the front desk) for printer paper and found boxes of booklets about Denver and the area.  Why not set these out?Also maid service was good except that I had set aside shopping bags to use to wrap items to put in my suitcase so they wouldn't break.  The maid threw them out even though I had them tucked in the fridge cabinet, no where near the trash.   That was annoying.When my husband and I travel we might stay here or look for something a little more upscale.  But it suited my sister and I who were just there to visit relatives and not in the hotel that much.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were visiting family in the area and just looked for  decent hotel in the area, but not tooo cheap.   Found this one and it filled our needs.   Very clean, and has a pool, jacuzzi and free morning breakfast.  Breakfast is not made to order (like Embassy) but above average and the ladies working it are attentive.    Price was lower than others closer to Denver or at airport.   It doesn't have a restaurant but there is one next door that I think is 24 hours.  there is also a Huge shopping center right by it, with any store you could want and numerous restaurants.  
+Basic room was nice.  I tried to upgrade but they were booked.   My sister and I shared the room and it worked out OK.  Comfy beds, good water pressure and clean.   For being a booked hotel our room was very quiet.   Hardly even heard street noise even though our window faced Toll road, course we did have our AC on at all times so that may have helped drown it out.   We had a even number room with a view  of sound wall.   Maybe odd number rooms look out over shopping center which would have been an improvement.
+My only complaints.....Upon arrival I looked all over for the stand of flyers you always find at hotels telling you whats in the area but couldn't find any. On our last day my sister looked in the cupboards...We were visiting family in the area and just looked for  decent hotel in the area, but not tooo cheap.   Found this one and it filled our needs.   Very clean, and has a pool, jacuzzi and free morning breakfast.  Breakfast is not made to order (like Embassy) but above average and the ladies working it are attentive.    Price was lower than others closer to Denver or at airport.   It doesn't have a restaurant but there is one next door that I think is 24 hours.  there is also a Huge shopping center right by it, with any store you could want and numerous restaurants.  Basic room was nice.  I tried to upgrade but they were booked.   My sister and I shared the room and it worked out OK.  Comfy beds, good water pressure and clean.   For being a booked hotel our room was very quiet.   Hardly even heard street noise even though our window faced Toll road, course we did have our AC on at all times so that may have helped drown it out.   We had a even number room with a view  of sound wall.   Maybe odd number rooms look out over shopping center which would have been an improvement.My only complaints.....Upon arrival I looked all over for the stand of flyers you always find at hotels telling you whats in the area but couldn't find any. On our last day my sister looked in the cupboards of the business center (just a couple of computers and a printer near the front desk) for printer paper and found boxes of booklets about Denver and the area.  Why not set these out?Also maid service was good except that I had set aside shopping bags to use to wrap items to put in my suitcase so they wouldn't break.  The maid threw them out even though I had them tucked in the fridge cabinet, no where near the trash.   That was annoying.When my husband and I travel we might stay here or look for something a little more upscale.  But it suited my sister and I who were just there to visit relatives and not in the hotel that much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r134860147-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>134860147</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>This is a new hotel, very modern and clean.  The staff was AWESOME.  Breakfast was good, no cardboard tasting cereal, real Kelloggs and a great variety of waffles.  Bed was comfy and rooms were nice and cool.  The location was wonderful with lots of shopping, restaurants and a movie theater within walking distance  I would definitely return again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded November 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2012</t>
+  </si>
+  <si>
+    <t>This is a new hotel, very modern and clean.  The staff was AWESOME.  Breakfast was good, no cardboard tasting cereal, real Kelloggs and a great variety of waffles.  Bed was comfy and rooms were nice and cool.  The location was wonderful with lots of shopping, restaurants and a movie theater within walking distance  I would definitely return again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r132402256-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132402256</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Great Service, Clean - Convenient!</t>
+  </si>
+  <si>
+    <t>This is a newer property conveniently located adjacent to the Southlands shopping area (meaning plenty of ameneties from clothes, to multiple restaurants, to anything else you may need while traveling). The staff was very pleasant and helpful throughout my stay - always taking time to offer assistance, ask about their restaurant suggestion, or to just say hello.  The property still seems very new - everything is fresh and clean. Rooms are large and well furnished - plenty of room to relax and get some work done without having to multi-purpose space. Beds are comfortable and cooling is very adequate.The only drawbacks, and they are minor, are tied to the fact that it's an extended stay-type of property.  You can hear footsteps from the rooms above fairly easily, and, my pet peeve, as people enter and leave their rooms, the doors slam loudly and incessantly. (this is more a reflection of the lack of awareness and courtesy on the part of guests - always wonder why hotels don't put signage up asking people to be considerate).   I'd definitely go back if in the area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded October 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2012</t>
+  </si>
+  <si>
+    <t>This is a newer property conveniently located adjacent to the Southlands shopping area (meaning plenty of ameneties from clothes, to multiple restaurants, to anything else you may need while traveling). The staff was very pleasant and helpful throughout my stay - always taking time to offer assistance, ask about their restaurant suggestion, or to just say hello.  The property still seems very new - everything is fresh and clean. Rooms are large and well furnished - plenty of room to relax and get some work done without having to multi-purpose space. Beds are comfortable and cooling is very adequate.The only drawbacks, and they are minor, are tied to the fact that it's an extended stay-type of property.  You can hear footsteps from the rooms above fairly easily, and, my pet peeve, as people enter and leave their rooms, the doors slam loudly and incessantly. (this is more a reflection of the lack of awareness and courtesy on the part of guests - always wonder why hotels don't put signage up asking people to be considerate).   I'd definitely go back if in the area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r132069128-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132069128</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Clean and spacious</t>
+  </si>
+  <si>
+    <t>I stayed here for a few days while coming out to celebrate a friends Retirement from the Navy. We got a good rate for the room because there were a lot of us staying there. When I got to Colorado, I arrived early in the day. The front desk was great in allowing me to check in early. My room was fantastic. The bed was sooo comfortable. The a/c worked well and kept the room nice and cool. In the morning, the curtains kept the light out of the room allowing me to sleep in if I wanted. They offer free wi-fi and it works quickly. There is a continental breakfast. Just a standard continental. Nothing too special there. My room was very quiet and I didn't hear any of the other guests around. There was a good sized desk in the room along with a small refrigerator. The only thing missing (very minor) was a vanity mirror. I will definitely stay here again and again. The hotel is centrally located. Lots of restaurants in Southlands Mall and you are close to E470 which makes it easy to get around the Denver metro area. The staff was extremely friendly and the rooms were nice and clean. I'm very pleased with this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a few days while coming out to celebrate a friends Retirement from the Navy. We got a good rate for the room because there were a lot of us staying there. When I got to Colorado, I arrived early in the day. The front desk was great in allowing me to check in early. My room was fantastic. The bed was sooo comfortable. The a/c worked well and kept the room nice and cool. In the morning, the curtains kept the light out of the room allowing me to sleep in if I wanted. They offer free wi-fi and it works quickly. There is a continental breakfast. Just a standard continental. Nothing too special there. My room was very quiet and I didn't hear any of the other guests around. There was a good sized desk in the room along with a small refrigerator. The only thing missing (very minor) was a vanity mirror. I will definitely stay here again and again. The hotel is centrally located. Lots of restaurants in Southlands Mall and you are close to E470 which makes it easy to get around the Denver metro area. The staff was extremely friendly and the rooms were nice and clean. I'm very pleased with this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r130953521-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>130953521</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Clean, Friendly, and Quiet</t>
+  </si>
+  <si>
+    <t>This newly opened hotel is easy to access (just off E470), has good clean beds and rooms, and friendly helpful staff.  The breakfast included in the stay has something to please everyone, from cofee and breakfast sandwiches to juice, cereal, fruit and yogurt.  Having all the shopping and dining options walkable from the hotel is also a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>This newly opened hotel is easy to access (just off E470), has good clean beds and rooms, and friendly helpful staff.  The breakfast included in the stay has something to please everyone, from cofee and breakfast sandwiches to juice, cereal, fruit and yogurt.  Having all the shopping and dining options walkable from the hotel is also a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r127017320-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>127017320</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Brand new hotel with very friendly staff</t>
+  </si>
+  <si>
+    <t>We rented a few rooms for relatives coming into town for our son's wedding.  The staff was very friendly and helpful.  The rooms were spacious and comfortable.  It is convenient to our home and Southlands Mall.  It was perfect for the occasion.  The breakfast spread was very nice.   The pool, hot tub, and exercise room were on the small side but extremely nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>We rented a few rooms for relatives coming into town for our son's wedding.  The staff was very friendly and helpful.  The rooms were spacious and comfortable.  It is convenient to our home and Southlands Mall.  It was perfect for the occasion.  The breakfast spread was very nice.   The pool, hot tub, and exercise room were on the small side but extremely nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r126137760-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>126137760</t>
+  </si>
+  <si>
+    <t>03/15/2012</t>
+  </si>
+  <si>
+    <t>FAIRFIELD INN &amp; SUITES - AURORA, CO</t>
+  </si>
+  <si>
+    <t>My wife and i are both road warriors and spend a lot of time in hotels for our work.This hotel is beautiful, clean and the staff incredible.  Angela, Kate and their co-workers are so friendly and helpful they make you feel at home.  Great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and i are both road warriors and spend a lot of time in hotels for our work.This hotel is beautiful, clean and the staff incredible.  Angela, Kate and their co-workers are so friendly and helpful they make you feel at home.  Great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r126000593-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>126000593</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>What a great staff!</t>
+  </si>
+  <si>
+    <t>I am thrilled this hotel has opened.  I travel all of the time and our company is contracted elsewhere in the Denver area.  This hotel is not convieniently located to my office, but its worth the drive.  I love it's location.  Given a choice I wouldnt stay anywhere else.  The staff is fantastic.  They consistently go out of their way to be friendly, make sure I have everything I need and to just say hello. All hotels could take a lesson in customer service from Angela and this Fairfield staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I am thrilled this hotel has opened.  I travel all of the time and our company is contracted elsewhere in the Denver area.  This hotel is not convieniently located to my office, but its worth the drive.  I love it's location.  Given a choice I wouldnt stay anywhere else.  The staff is fantastic.  They consistently go out of their way to be friendly, make sure I have everything I need and to just say hello. All hotels could take a lesson in customer service from Angela and this Fairfield staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r122951870-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>122951870</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Night Manager - Angela Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>From time of check-in, I was received with exceptional service.  Angela made sure accomandations suited my stay, along with providing directions to our planned meetings.  On my next visit, you can count on my selecting this hotel.Great StayLouie MattaMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Fairfield Inn &amp; Suites Denver Aurora/Parker, responded to this reviewResponded February 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2012</t>
+  </si>
+  <si>
+    <t>From time of check-in, I was received with exceptional service.  Angela made sure accomandations suited my stay, along with providing directions to our planned meetings.  On my next visit, you can count on my selecting this hotel.Great StayLouie MattaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d2324883-r121555066-Fairfield_Inn_Suites_Denver_Aurora_Parker-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>121555066</t>
+  </si>
+  <si>
+    <t>12/09/2011</t>
+  </si>
+  <si>
+    <t>Best Customer Service Ever!</t>
+  </si>
+  <si>
+    <t>I am a seasoned road warrior that has never written a review for a hotel. However, after my stay here I was compelled to do so. The General Manager, Chris Daley was attentive and made sure our small meeting was comfortable and productive. The front desk manager, Angela was incredible. She memorized my name and room number (its a great feeling to be called by name and not have to provide a room number everytime you need something) and proactively offered me a wake up call! She also took every opportunity to make sure that I had everything I needed and was completely comfortable. I hold a platinum status with another hotel brand and have never received this type of service. Looks like Marriot has earned my business. Keep up the great work!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I am a seasoned road warrior that has never written a review for a hotel. However, after my stay here I was compelled to do so. The General Manager, Chris Daley was attentive and made sure our small meeting was comfortable and productive. The front desk manager, Angela was incredible. She memorized my name and room number (its a great feeling to be called by name and not have to provide a room number everytime you need something) and proactively offered me a wake up call! She also took every opportunity to make sure that I had everything I needed and was completely comfortable. I hold a platinum status with another hotel brand and have never received this type of service. Looks like Marriot has earned my business. Keep up the great work!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2888,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2920,7431 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>189</v>
+      </c>
+      <c r="X24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>189</v>
+      </c>
+      <c r="X25" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>217</v>
+      </c>
+      <c r="X27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>245</v>
+      </c>
+      <c r="X31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>232</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>253</v>
+      </c>
+      <c r="X32" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>269</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>270</v>
+      </c>
+      <c r="X34" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>285</v>
+      </c>
+      <c r="X36" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>285</v>
+      </c>
+      <c r="X37" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>285</v>
+      </c>
+      <c r="X38" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>285</v>
+      </c>
+      <c r="X39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" t="s">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s">
+        <v>321</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" t="s">
+        <v>326</v>
+      </c>
+      <c r="L43" t="s">
+        <v>327</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>316</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>336</v>
+      </c>
+      <c r="J45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>316</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>348</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>353</v>
+      </c>
+      <c r="J48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" t="s">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>364</v>
+      </c>
+      <c r="X49" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>373</v>
+      </c>
+      <c r="X50" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>382</v>
+      </c>
+      <c r="X51" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>387</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>381</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>398</v>
+      </c>
+      <c r="K54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>401</v>
+      </c>
+      <c r="O54" t="s">
+        <v>85</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>414</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s">
+        <v>416</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>417</v>
+      </c>
+      <c r="O57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>372</v>
+      </c>
+      <c r="O58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s">
+        <v>428</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>417</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>429</v>
+      </c>
+      <c r="X59" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>433</v>
+      </c>
+      <c r="J60" t="s">
+        <v>434</v>
+      </c>
+      <c r="K60" t="s">
+        <v>435</v>
+      </c>
+      <c r="L60" t="s">
+        <v>436</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>417</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>437</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>438</v>
+      </c>
+      <c r="J61" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" t="s">
+        <v>440</v>
+      </c>
+      <c r="L61" t="s">
+        <v>441</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>417</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" t="s">
+        <v>445</v>
+      </c>
+      <c r="L62" t="s">
+        <v>446</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>447</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>448</v>
+      </c>
+      <c r="X62" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>452</v>
+      </c>
+      <c r="J63" t="s">
+        <v>453</v>
+      </c>
+      <c r="K63" t="s">
+        <v>454</v>
+      </c>
+      <c r="L63" t="s">
+        <v>455</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>447</v>
+      </c>
+      <c r="O63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>456</v>
+      </c>
+      <c r="X63" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" t="s">
+        <v>461</v>
+      </c>
+      <c r="K64" t="s">
+        <v>462</v>
+      </c>
+      <c r="L64" t="s">
+        <v>463</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>464</v>
+      </c>
+      <c r="O64" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>465</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" t="s">
+        <v>467</v>
+      </c>
+      <c r="K65" t="s">
+        <v>468</v>
+      </c>
+      <c r="L65" t="s">
+        <v>469</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>470</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>471</v>
+      </c>
+      <c r="X65" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>475</v>
+      </c>
+      <c r="J66" t="s">
+        <v>476</v>
+      </c>
+      <c r="K66" t="s">
+        <v>477</v>
+      </c>
+      <c r="L66" t="s">
+        <v>478</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>479</v>
+      </c>
+      <c r="X66" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>483</v>
+      </c>
+      <c r="J67" t="s">
+        <v>484</v>
+      </c>
+      <c r="K67" t="s">
+        <v>485</v>
+      </c>
+      <c r="L67" t="s">
+        <v>486</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>487</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>488</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>489</v>
+      </c>
+      <c r="J68" t="s">
+        <v>490</v>
+      </c>
+      <c r="K68" t="s">
+        <v>491</v>
+      </c>
+      <c r="L68" t="s">
+        <v>492</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>493</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>494</v>
+      </c>
+      <c r="X68" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>497</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>498</v>
+      </c>
+      <c r="J69" t="s">
+        <v>499</v>
+      </c>
+      <c r="K69" t="s">
+        <v>500</v>
+      </c>
+      <c r="L69" t="s">
+        <v>501</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>502</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>503</v>
+      </c>
+      <c r="X69" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>507</v>
+      </c>
+      <c r="J70" t="s">
+        <v>499</v>
+      </c>
+      <c r="K70" t="s">
+        <v>508</v>
+      </c>
+      <c r="L70" t="s">
+        <v>509</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>503</v>
+      </c>
+      <c r="X70" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>511</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>512</v>
+      </c>
+      <c r="J71" t="s">
+        <v>513</v>
+      </c>
+      <c r="K71" t="s">
+        <v>514</v>
+      </c>
+      <c r="L71" t="s">
+        <v>515</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>470</v>
+      </c>
+      <c r="O71" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>517</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>518</v>
+      </c>
+      <c r="J72" t="s">
+        <v>519</v>
+      </c>
+      <c r="K72" t="s">
+        <v>520</v>
+      </c>
+      <c r="L72" t="s">
+        <v>521</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>522</v>
+      </c>
+      <c r="O72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>523</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>524</v>
+      </c>
+      <c r="J73" t="s">
+        <v>519</v>
+      </c>
+      <c r="K73" t="s">
+        <v>525</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>527</v>
+      </c>
+      <c r="O73" t="s">
+        <v>57</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>528</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>529</v>
+      </c>
+      <c r="J74" t="s">
+        <v>530</v>
+      </c>
+      <c r="K74" t="s">
+        <v>531</v>
+      </c>
+      <c r="L74" t="s">
+        <v>532</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>470</v>
+      </c>
+      <c r="O74" t="s">
+        <v>57</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" t="s">
+        <v>536</v>
+      </c>
+      <c r="K75" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" t="s">
+        <v>538</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>470</v>
+      </c>
+      <c r="O75" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>540</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>541</v>
+      </c>
+      <c r="J76" t="s">
+        <v>542</v>
+      </c>
+      <c r="K76" t="s">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s">
+        <v>544</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>545</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>546</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>547</v>
+      </c>
+      <c r="J77" t="s">
+        <v>548</v>
+      </c>
+      <c r="K77" t="s">
+        <v>549</v>
+      </c>
+      <c r="L77" t="s">
+        <v>550</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" t="s">
+        <v>57</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>552</v>
+      </c>
+      <c r="X77" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>555</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>556</v>
+      </c>
+      <c r="J78" t="s">
+        <v>548</v>
+      </c>
+      <c r="K78" t="s">
+        <v>557</v>
+      </c>
+      <c r="L78" t="s">
+        <v>558</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>487</v>
+      </c>
+      <c r="O78" t="s">
+        <v>85</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>559</v>
+      </c>
+      <c r="X78" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>562</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>563</v>
+      </c>
+      <c r="J79" t="s">
+        <v>564</v>
+      </c>
+      <c r="K79" t="s">
+        <v>565</v>
+      </c>
+      <c r="L79" t="s">
+        <v>566</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>567</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>568</v>
+      </c>
+      <c r="J80" t="s">
+        <v>569</v>
+      </c>
+      <c r="K80" t="s">
+        <v>570</v>
+      </c>
+      <c r="L80" t="s">
+        <v>571</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>572</v>
+      </c>
+      <c r="O80" t="s">
+        <v>85</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>574</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>575</v>
+      </c>
+      <c r="J81" t="s">
+        <v>576</v>
+      </c>
+      <c r="K81" t="s">
+        <v>577</v>
+      </c>
+      <c r="L81" t="s">
+        <v>578</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>572</v>
+      </c>
+      <c r="O81" t="s">
+        <v>85</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>579</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>580</v>
+      </c>
+      <c r="J82" t="s">
+        <v>581</v>
+      </c>
+      <c r="K82" t="s">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s">
+        <v>583</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>584</v>
+      </c>
+      <c r="O82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>585</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>586</v>
+      </c>
+      <c r="J83" t="s">
+        <v>587</v>
+      </c>
+      <c r="K83" t="s">
+        <v>588</v>
+      </c>
+      <c r="L83" t="s">
+        <v>589</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>590</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>591</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>592</v>
+      </c>
+      <c r="J84" t="s">
+        <v>593</v>
+      </c>
+      <c r="K84" t="s">
+        <v>594</v>
+      </c>
+      <c r="L84" t="s">
+        <v>595</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>596</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>597</v>
+      </c>
+      <c r="J85" t="s">
+        <v>598</v>
+      </c>
+      <c r="K85" t="s">
+        <v>599</v>
+      </c>
+      <c r="L85" t="s">
+        <v>600</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>601</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>602</v>
+      </c>
+      <c r="J86" t="s">
+        <v>603</v>
+      </c>
+      <c r="K86" t="s">
+        <v>604</v>
+      </c>
+      <c r="L86" t="s">
+        <v>605</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>606</v>
+      </c>
+      <c r="O86" t="s">
+        <v>85</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>607</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>608</v>
+      </c>
+      <c r="J87" t="s">
+        <v>609</v>
+      </c>
+      <c r="K87" t="s">
+        <v>610</v>
+      </c>
+      <c r="L87" t="s">
+        <v>611</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>606</v>
+      </c>
+      <c r="O87" t="s">
+        <v>85</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>613</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>614</v>
+      </c>
+      <c r="J88" t="s">
+        <v>615</v>
+      </c>
+      <c r="K88" t="s">
+        <v>616</v>
+      </c>
+      <c r="L88" t="s">
+        <v>617</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>618</v>
+      </c>
+      <c r="O88" t="s">
+        <v>85</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>620</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>621</v>
+      </c>
+      <c r="J89" t="s">
+        <v>622</v>
+      </c>
+      <c r="K89" t="s">
+        <v>623</v>
+      </c>
+      <c r="L89" t="s">
+        <v>624</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>625</v>
+      </c>
+      <c r="O89" t="s">
+        <v>68</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>627</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>628</v>
+      </c>
+      <c r="J90" t="s">
+        <v>629</v>
+      </c>
+      <c r="K90" t="s">
+        <v>630</v>
+      </c>
+      <c r="L90" t="s">
+        <v>631</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>632</v>
+      </c>
+      <c r="O90" t="s">
+        <v>85</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>634</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>635</v>
+      </c>
+      <c r="J91" t="s">
+        <v>636</v>
+      </c>
+      <c r="K91" t="s">
+        <v>637</v>
+      </c>
+      <c r="L91" t="s">
+        <v>638</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>639</v>
+      </c>
+      <c r="O91" t="s">
+        <v>85</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>641</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>642</v>
+      </c>
+      <c r="J92" t="s">
+        <v>643</v>
+      </c>
+      <c r="K92" t="s">
+        <v>644</v>
+      </c>
+      <c r="L92" t="s">
+        <v>645</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>639</v>
+      </c>
+      <c r="O92" t="s">
+        <v>85</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>647</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>648</v>
+      </c>
+      <c r="J93" t="s">
+        <v>649</v>
+      </c>
+      <c r="K93" t="s">
+        <v>650</v>
+      </c>
+      <c r="L93" t="s">
+        <v>651</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>652</v>
+      </c>
+      <c r="O93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>653</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>654</v>
+      </c>
+      <c r="J94" t="s">
+        <v>655</v>
+      </c>
+      <c r="K94" t="s">
+        <v>656</v>
+      </c>
+      <c r="L94" t="s">
+        <v>657</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>652</v>
+      </c>
+      <c r="O94" t="s">
+        <v>68</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>658</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>659</v>
+      </c>
+      <c r="J95" t="s">
+        <v>660</v>
+      </c>
+      <c r="K95" t="s">
+        <v>661</v>
+      </c>
+      <c r="L95" t="s">
+        <v>662</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>663</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>664</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>665</v>
+      </c>
+      <c r="J96" t="s">
+        <v>666</v>
+      </c>
+      <c r="K96" t="s">
+        <v>667</v>
+      </c>
+      <c r="L96" t="s">
+        <v>668</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>663</v>
+      </c>
+      <c r="O96" t="s">
+        <v>85</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>669</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>670</v>
+      </c>
+      <c r="J97" t="s">
+        <v>671</v>
+      </c>
+      <c r="K97" t="s">
+        <v>672</v>
+      </c>
+      <c r="L97" t="s">
+        <v>673</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>663</v>
+      </c>
+      <c r="O97" t="s">
+        <v>68</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>675</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>676</v>
+      </c>
+      <c r="J98" t="s">
+        <v>677</v>
+      </c>
+      <c r="K98" t="s">
+        <v>678</v>
+      </c>
+      <c r="L98" t="s">
+        <v>679</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>680</v>
+      </c>
+      <c r="O98" t="s">
+        <v>68</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>682</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>683</v>
+      </c>
+      <c r="J99" t="s">
+        <v>684</v>
+      </c>
+      <c r="K99" t="s">
+        <v>685</v>
+      </c>
+      <c r="L99" t="s">
+        <v>686</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>680</v>
+      </c>
+      <c r="O99" t="s">
+        <v>85</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>687</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>688</v>
+      </c>
+      <c r="J100" t="s">
+        <v>689</v>
+      </c>
+      <c r="K100" t="s">
+        <v>690</v>
+      </c>
+      <c r="L100" t="s">
+        <v>691</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>692</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>694</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>695</v>
+      </c>
+      <c r="J101" t="s">
+        <v>696</v>
+      </c>
+      <c r="K101" t="s">
+        <v>697</v>
+      </c>
+      <c r="L101" t="s">
+        <v>698</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>699</v>
+      </c>
+      <c r="O101" t="s">
+        <v>57</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>700</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>701</v>
+      </c>
+      <c r="J102" t="s">
+        <v>702</v>
+      </c>
+      <c r="K102" t="s">
+        <v>703</v>
+      </c>
+      <c r="L102" t="s">
+        <v>704</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>705</v>
+      </c>
+      <c r="O102" t="s">
+        <v>85</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>706</v>
+      </c>
+      <c r="X102" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>709</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>710</v>
+      </c>
+      <c r="J103" t="s">
+        <v>711</v>
+      </c>
+      <c r="K103" t="s">
+        <v>712</v>
+      </c>
+      <c r="L103" t="s">
+        <v>713</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>714</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>715</v>
+      </c>
+      <c r="X103" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>718</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>719</v>
+      </c>
+      <c r="J104" t="s">
+        <v>720</v>
+      </c>
+      <c r="K104" t="s">
+        <v>721</v>
+      </c>
+      <c r="L104" t="s">
+        <v>722</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>714</v>
+      </c>
+      <c r="O104" t="s">
+        <v>57</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>715</v>
+      </c>
+      <c r="X104" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>724</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>725</v>
+      </c>
+      <c r="J105" t="s">
+        <v>726</v>
+      </c>
+      <c r="K105" t="s">
+        <v>727</v>
+      </c>
+      <c r="L105" t="s">
+        <v>728</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>714</v>
+      </c>
+      <c r="O105" t="s">
+        <v>85</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>715</v>
+      </c>
+      <c r="X105" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>730</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>731</v>
+      </c>
+      <c r="J106" t="s">
+        <v>732</v>
+      </c>
+      <c r="K106" t="s">
+        <v>733</v>
+      </c>
+      <c r="L106" t="s">
+        <v>734</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>735</v>
+      </c>
+      <c r="O106" t="s">
+        <v>85</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>715</v>
+      </c>
+      <c r="X106" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>737</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>738</v>
+      </c>
+      <c r="J107" t="s">
+        <v>739</v>
+      </c>
+      <c r="K107" t="s">
+        <v>740</v>
+      </c>
+      <c r="L107" t="s">
+        <v>741</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>742</v>
+      </c>
+      <c r="O107" t="s">
+        <v>85</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>743</v>
+      </c>
+      <c r="X107" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>746</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>747</v>
+      </c>
+      <c r="J108" t="s">
+        <v>748</v>
+      </c>
+      <c r="K108" t="s">
+        <v>749</v>
+      </c>
+      <c r="L108" t="s">
+        <v>750</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>742</v>
+      </c>
+      <c r="O108" t="s">
+        <v>85</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>743</v>
+      </c>
+      <c r="X108" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>752</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>753</v>
+      </c>
+      <c r="J109" t="s">
+        <v>754</v>
+      </c>
+      <c r="K109" t="s">
+        <v>755</v>
+      </c>
+      <c r="L109" t="s">
+        <v>756</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>742</v>
+      </c>
+      <c r="O109" t="s">
+        <v>68</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>757</v>
+      </c>
+      <c r="X109" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>760</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>761</v>
+      </c>
+      <c r="J110" t="s">
+        <v>762</v>
+      </c>
+      <c r="K110" t="s">
+        <v>763</v>
+      </c>
+      <c r="L110" t="s">
+        <v>764</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>765</v>
+      </c>
+      <c r="O110" t="s">
+        <v>52</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>766</v>
+      </c>
+      <c r="X110" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>769</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s">
+        <v>770</v>
+      </c>
+      <c r="J111" t="s">
+        <v>771</v>
+      </c>
+      <c r="K111" t="s">
+        <v>772</v>
+      </c>
+      <c r="L111" t="s">
+        <v>773</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>765</v>
+      </c>
+      <c r="O111" t="s">
+        <v>57</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>743</v>
+      </c>
+      <c r="X111" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>775</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s">
+        <v>776</v>
+      </c>
+      <c r="J112" t="s">
+        <v>777</v>
+      </c>
+      <c r="K112" t="s">
+        <v>778</v>
+      </c>
+      <c r="L112" t="s">
+        <v>779</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>780</v>
+      </c>
+      <c r="O112" t="s">
+        <v>52</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>766</v>
+      </c>
+      <c r="X112" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
+        <v>782</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s">
+        <v>783</v>
+      </c>
+      <c r="J113" t="s">
+        <v>784</v>
+      </c>
+      <c r="K113" t="s">
+        <v>785</v>
+      </c>
+      <c r="L113" t="s">
+        <v>786</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>780</v>
+      </c>
+      <c r="O113" t="s">
+        <v>85</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>766</v>
+      </c>
+      <c r="X113" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
+        <v>788</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s">
+        <v>789</v>
+      </c>
+      <c r="J114" t="s">
+        <v>790</v>
+      </c>
+      <c r="K114" t="s">
+        <v>791</v>
+      </c>
+      <c r="L114" t="s">
+        <v>792</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>780</v>
+      </c>
+      <c r="O114" t="s">
+        <v>52</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>766</v>
+      </c>
+      <c r="X114" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>794</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s">
+        <v>795</v>
+      </c>
+      <c r="J115" t="s">
+        <v>796</v>
+      </c>
+      <c r="K115" t="s">
+        <v>797</v>
+      </c>
+      <c r="L115" t="s">
+        <v>798</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>799</v>
+      </c>
+      <c r="O115" t="s">
+        <v>52</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>766</v>
+      </c>
+      <c r="X115" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s">
+        <v>801</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" t="s">
+        <v>802</v>
+      </c>
+      <c r="J116" t="s">
+        <v>803</v>
+      </c>
+      <c r="K116" t="s">
+        <v>804</v>
+      </c>
+      <c r="L116" t="s">
+        <v>805</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>806</v>
+      </c>
+      <c r="O116" t="s">
+        <v>52</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>807</v>
+      </c>
+      <c r="X116" t="s">
+        <v>808</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>58054</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
+        <v>810</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" t="s">
+        <v>811</v>
+      </c>
+      <c r="J117" t="s">
+        <v>812</v>
+      </c>
+      <c r="K117" t="s">
+        <v>813</v>
+      </c>
+      <c r="L117" t="s">
+        <v>814</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>815</v>
+      </c>
+      <c r="O117" t="s">
+        <v>52</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>807</v>
+      </c>
+      <c r="X117" t="s">
+        <v>808</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
